--- a/working/test.xlsx
+++ b/working/test.xlsx
@@ -36,7 +36,7 @@
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">- 총 180개 국가</t>
+      <t xml:space="preserve">- 총 181개 국가</t>
     </r>
     <r>
       <rPr>
@@ -65,7 +65,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2020.3.28.(토),  16:30  외교부(재외국민안전과)</t>
+      <t xml:space="preserve">2020.3.29.(일),  17:00  외교부(재외국민안전과)</t>
     </r>
   </si>
   <si>
@@ -254,28 +254,10 @@
     <r>
       <rPr>
         <sz val="12.0"/>
-        <color rgb="FF181818"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">※  명시적  입국  금</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">지,  사실상  입국  금지,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <color rgb="FF181818"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">한국  출발  이후  일정기간  이후  입국허용</t>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  명시적  입국  금지,  사실상  입국금지,  한국  출발  이후  일정기간  이후  입국허용</t>
     </r>
   </si>
   <si>
@@ -595,7 +577,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  3.21.(당일  포함)  이전에  무비자,  도착비자,  체류비자로  대만을  방문한  외국인 및  대만  내  체류기간이  만료되지  않은  외국인  대상  일률적으로  체류기간  30일 자동  연장
+      <t xml:space="preserve">※ 3.21.(당일 포함)  이전에  무비자,  도착비자,  체류비자로 대만을  방문한  외국인  및  대 만 내 체류기간이 만료되지 않은 외국인 대상 일률적으로 체류기간 30일 자동 연장
 </t>
     </r>
     <r>
@@ -651,7 +633,25 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※ 동티모르 출생 외국인,  거주 비자 소지 외국인은 입국 가능하나 14일간 자가격리</t>
+      <t xml:space="preserve">※ 동티모르 출생 외국인,  거주 비자 소지 외국인은 입국 가능하나 14일간 자가격리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  코로나  19  감염  의심시,  보건부  강제  시험  실시  및  코로나  19  증상자  입국시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">강제  격리  (3.29)</t>
     </r>
   </si>
   <si>
@@ -680,7 +680,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2019.12.31.  이후  한국,  중국,  홍콩,  마카오,  이탈리아,  일본,  이란,  독일,  프랑스,  스 페인을  출발</t>
+      <t xml:space="preserve">2019.12.31.  이후  한국,  중국,  홍콩,  마카오,  이탈리아,  일본,  이란,  독일,  프랑스,  스
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">페인을  출발</t>
     </r>
     <r>
       <rPr>
@@ -723,17 +732,7 @@
         <rFont val="UnDinaru"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">마이크로
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.0"/>
-        <rFont val="UnDinaru"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">네시아</t>
+      <t xml:space="preserve">마이크로 네시아</t>
     </r>
   </si>
   <si>
@@ -825,16 +824,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">-  최근  14일  이내  중국본토에만  머문  경우  입국  가능  단,  위험지역(후베이성  등)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">방문력  의료검역조치</t>
+      <t xml:space="preserve">-  최근  14일  이내  중국본토에만  머문  경우  입국  가능  단,  위험지역(후베이성  등) 방문력  의료검역조치</t>
     </r>
   </si>
   <si>
@@ -1083,7 +1073,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  △외교  또는  공무  목적  방문,  △주요  대외  행사  참석,  △전문가,  기업  관리자, 고급  기술  인력의  경우  입국  가능(입국이  보장되는  것은  아니며  사전에  베트남 측과  충분히  협의된  자에  한함)
+      <t xml:space="preserve">※  △외교  또는  공무  목적  방문,  △주요  대외  행사  참석의  경우  입국  가능(입국이 보장되는  것은  아니며  사전에  베트남  측과  충분히  협의된  자에  한함)
 </t>
     </r>
     <r>
@@ -1135,7 +1125,43 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※ 3.18.부터 30일간 모든 외국인 대상 비자 발급 중단(3.17.)</t>
+      <t xml:space="preserve">※ 3.18.부터 30일간 모든 외국인 대상 비자 발급 중단(3.17.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  △특수  상황(전문가,  사업가,  고급기술인력)에  따른  비자  발급을  통해  베트남  입국,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">△무비자 및 비자면제증서로 입국하는 경우 해당 국가의 관할기관에서 발급하고 베 트남이 인정하는 코로나19 음성판정확인서*를 제출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">*  음성판정 확인서에는 해당인의 성명,  생년월일,  성별,  국적,  여권번호,  해당국가내 주 소,  베트남내 체류주소,  검사기관명,  검사 샘플 채취일,  검사일자,  검사방법,  검사 결
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">과, 입국 예정일 등 정보가 있어야 하며, 검사 결과가 나온 날로부터 3일간만 유효함</t>
     </r>
   </si>
   <si>
@@ -1260,7 +1286,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">입국  전  14일  이내  코로나19  확진자  발생  국가(한국,  중국,  홍콩,  마카오,  일본,  싱가 포르,  태국,  이탈리아,  이란,  쿠웨이트,  대만,  독일,  스페인,  프랑스,  바레인 등)를 방문 후 입국한 모든 방문자는 △미국령 사모아를 입국하기 전 하와이에서 14일 체류,  △입국 3일 이내 발급된 건강검진서 제출 필요(3.6.)</t>
+      <t xml:space="preserve">입국한 모든 방문자는 △미국령 사모아를 입국하기 전 하와이에서 14일 체류, △건강검진서 제출,  △입국 시 추가적으로 보건 검진(스크리닝)을 받은 후 검진 결과에 따라 방문자를 14 일간 격리조치(3.24)</t>
     </r>
   </si>
   <si>
@@ -2037,7 +2063,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">-  자가격리자 매일 위치  보고  및 체온 측정  기록/이동 및  출국  불가(위반 시  법적 처벌)  /  최근  14일  이내  대구·경북을  방문,  입국하는  홍콩거주자  정부격리시설 14일간 강제격리</t>
+      <t xml:space="preserve">-  자가격리자 매일 위치  보고  및 체온 측정  기록/이동 및  출국  불가(위반 시  법적 처벌)  /  최근  14일  이내  대구·경북을  방문,  입국하는  홍콩거주자  정부격리시설
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">14일간 강제격리</t>
     </r>
   </si>
   <si>
@@ -2397,88 +2432,25 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.23.-3.29.  한국,  중국,  일본,  말레이시아,  호주,  EU국가,  영국,  북아일랜드,  아이슬
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">란드,  노르웨이,  스위스,  이란을  출발하여  입국하는  외국인  대상  입국금지(3.20.)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="VL PGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">▸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(항공)  3.30.부터  30일  간  모든  외국인  입국금지(3.27.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">※ 공항 환승구역을 벗어나지 않는 조건 아래 경유가능
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">※ (육로) 베네수엘라, 아르헨티나, 볼리비아,  콜롬비아, 우루과이 등 모든 브라질 접경 국가와 의 육로를 통한 외국인 입국 금지
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">※ (해로) 3.26.부터 30일 간 항구로 입국하는 모든 외국인 입국 금지
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">※ △자국민,  △거주자격 소지자,  △국제기구 파견 전문가,  △브라질 정부의 승인을 받은 외국 공무원,  △브라질 국민의 가족상봉 대상 외국인,  △영주권자,  △물류 운송증 소지자,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">△항공사 관계자
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">※  브라질 거주 우리 국민이 출국하는 경우에는 제한 없음</t>
+      <t xml:space="preserve">3.30.부터  30일간  모든  외국인  대상  입국금지(3.20.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※ △영주권자,  △기존 거주자격 이민자,  △등록 외교관 등은 예외적 허용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  목적지에  입국이  가능한  경우  브라질  환승  허용</t>
     </r>
   </si>
   <si>
@@ -3674,7 +3646,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.19.부터  30일간  비EU  회원국  및  비쉥겐  협약국으로부터  입국하는  외국인  대상  입국 금지(3.18.)
+      <t xml:space="preserve">3.19.부터  30일간  비EU  회원국  및  비쉥겐  협약국으로부터  입국하는  외국인  대상  입국
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">금지(3.18.)
 </t>
     </r>
     <r>
@@ -3708,7 +3689,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  3.21.  20시-4.4.  스페인발  여객기  입국금지(3.23.)  /  3.23  21시-4.6.  오스트리아발 여객기  입국금지(3.23.)
+      <t xml:space="preserve">※  3.21.-4.4.  스페인발  여객기  입국금지(3.23.)  /  3.23.-4.6.  오스트리아발  여객기  입 국금지(3.23.)
 </t>
     </r>
     <r>
@@ -3883,7 +3864,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  제3국  국적자로서  EU규정이나  회원국  법에  따른  장기  체류허가  소지자  또는  장 기비자  보유자로  목적지가  자신의  본국(체류국)  이고  독일을  경유하는  경우  입 국  가능
+      <t xml:space="preserve">※ 제3국 국적자로서 EU규정이나 회원국 법에 따른 장기 체류허가 소지자 또는 장기비 자 보유자로 목적지가 자신의 본국(체류국)  이고 독일을 경유하는 경우 입국 가능
 </t>
     </r>
     <r>
@@ -3924,17 +3905,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">상품 운송분야 종사자,  △외교관,  국제기구 직</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">원,  군인,  인도지원 관계자,  △경유승객,  △긴급한 가족 관련 사안으로 여행중인 승 객,  △국제적 보호가 필요하거나 기타 인도적 사유가 있는 승객의 경우 입국 가능
+      <t xml:space="preserve">상품 운송분야 종사자,  △외교관,  국제기구 직 원,  군인,  인도지원 관계자,  △경유승객,  △긴급한 가족 관련 사안으로 여행중인 승 객,  △국제적 보호가 필요하거나 기타 인도적 사유가 있는 승객의 경우 입국 가능
 </t>
     </r>
     <r>
@@ -4053,16 +4024,58 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">공무사증 소지자,  △친족의  사망을  이유로  발급된  일반사증  소지자,  △영주권자  △공항을  통해
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">환승하는 자 의 경우 예외이며 입국 시 14일간 의무적 자가격리</t>
+      <t xml:space="preserve">공무사증 소지자,  △친족의  사망을  이유로  발급된  일반사증  소지자,  △영주권자  △공항을  통해 환승하는 자 의 경우 예외이며 입국 시 14일간 의무적 자가격리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">▸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.30.  모든 러시아연방 국경에서 차량,  철도,  도보,  하천 등 이동 제한
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  △외교공관,  △국제기구  및  국제기구  대표부,  △러시아  내  기타  외국  공식  대표부 등의  소속직원,  △국제운송  차량의  운전자,  △하천선박 승무원,  △국제철도 열차 및 기관차 승무원,  △철도분야 국제협정에 규정된 직원,  △정부간 택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">통신 직원,  △공
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">식대표단은 예외</t>
     </r>
   </si>
   <si>
@@ -4204,7 +4217,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  △거주지로  돌아가기  원하는  EU+4(노르웨이,  리히텐슈타인,  스위스,  아이슬란드) 국가</t>
+      <t xml:space="preserve">※  △거주지로  돌아가기  원하는  EU+4(노르웨이,  리히텐슈타인,  스위스,  아이슬란드)  국 가</t>
     </r>
     <r>
       <rPr>
@@ -4220,7 +4233,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">영국  국민  및  그의  가족,  △제3국  국민  중  EU지침  2003/109/EC에  따른  장기 체류증  보유자,  유럽  지침  및  룩셈부르크  국내법,  룩셈부르크  또는  룩셈부르크와 국경을  접하고  있는  국가의  국내법에  따른  체류권  보유자,  △의료</t>
+      <t xml:space="preserve">영국 국민 및 그의 가족,  △제3국 국민 중 EU지침 2003/109/EC에 따른 장기체류 증  보유자,  유럽  지침  및  룩셈부르크  국내법,  룩셈부르크  또는  룩셈부르크와  국경 을 접하고 있는 국가의 국내법에 따른 체류권 보유자,  △의료</t>
     </r>
     <r>
       <rPr>
@@ -4236,7 +4249,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">운송분야,  △외 교관</t>
+      <t xml:space="preserve">운송분야,  △외교관</t>
     </r>
     <r>
       <rPr>
@@ -4252,7 +4265,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">국제기구  직원,  군인,  인도적  지원원  분야  인력  등,  △경유자,  △긴급하고  정 당화되는  가족상의  이유,  △국제보호  또는  보조  보호를  받고자하는  자의  경우  입 국 가능</t>
+      <t xml:space="preserve">국 제기구 직원,  군인,  인도적 지원원 분야 인력 등,  △경유자,  △긴급하고 정당화되는
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">가족상의 이유,  △국제보호 또는 보조 보호를 받고자하는 자의 경우 입국 가능</t>
     </r>
   </si>
   <si>
@@ -4432,7 +4454,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">운송  담당  승 무원  및  기사는  제외</t>
+      <t xml:space="preserve">운송  담당  승
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">무원  및  기사는  제외</t>
     </r>
   </si>
   <si>
@@ -4486,28 +4517,27 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">영국의  국민과  영구거주자,  △외교관,  의료인,  백신개발 연구자,  △운송업자, 타 국가로  돌아가기 위한 벨기에 경유,  긴급한 가족 관련 이유,  △국제보호를 원 하는 난민의 경우 입국 가능</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.0"/>
-        <rFont val="UnDinaru"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">보스니아
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.0"/>
-        <rFont val="UnDinaru"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">헤르체고비나</t>
+      <t xml:space="preserve">영국의  국민과  영구거주자,  △외교관,  의료인,  백신개발 연구자,  △운송업자, 타 국가로  돌아가기 위한 벨기에 경유,  긴급한 가족 관련 이유,  △국제보호를 원
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">하는 난민의 경우 입국 가능</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.0"/>
+        <rFont val="UnDinaru"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">보스니아 헤르체고비나</t>
     </r>
   </si>
   <si>
@@ -4534,17 +4564,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  △의료진  및  응급환자,  △국경지역  근로자,  △외교관,  △체류허가  소지자,  △경유자</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(네움지역 포함)의 경우 입국 가능
+      <t xml:space="preserve">※  △의료진  및  응급환자,  △국경지역  근로자,  △외교관,  △체류허가  소지자,  △경유자 (네움지역 포함)의 경우 입국 가능
 </t>
     </r>
     <r>
@@ -4645,7 +4665,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">국제기구  직원  등,  △인도적  사유로  인한 여행,  △EU국가  장기체류  비자를  소지한  외국인으로  거주지에  돌아가기  위한  경 유자 등의 경우 입국 가능</t>
+      <t xml:space="preserve">국제기구  직원  등,  △인도적  사유로  인한 여행,  △EU국가  장기체류  비자를  소지한  외국인으로  거주지에  돌아가기  위한  경
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">유자 등의 경우 입국 가능</t>
     </r>
   </si>
   <si>
@@ -4692,7 +4721,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">-  3.16-3.30  사이프러스  공항(라르나카,  파포스)  입국시  코로나19  음성  확인서  제 출  필수  (미제출시  동일  항공편으로  귀국  조치)</t>
+      <t xml:space="preserve">-  3.16-3.30  사이프러스  공항(라르나카,  파포스)  입국시  코로나19  음성  확인서  제
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">출  필수  (미제출시  동일  항공편으로  귀국  조치)</t>
     </r>
   </si>
   <si>
@@ -4762,7 +4800,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  거주증  소지  외국인은  입국가능하나  14일간  자가격리(감염  심화지역에서  방문한 경우 28일간 자가격리)</t>
+      <t xml:space="preserve">※  거주증  소지  외국인은  입국가능하나  14일간  자가격리(감염  심화지역에서  방문한
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">경우 28일간 자가격리)</t>
     </r>
   </si>
   <si>
@@ -4791,7 +4838,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.19.부터  30일간  유럽경제지역(EEA)  소속국  및  스위스  국적을  보유하지  않은  모든 외국인  대상  입국금지(3.17.)
+      <t xml:space="preserve">3.19.부터  30일간  유럽경제지역(EEA)  소속국  및  스위스  국적을  보유하지  않은  모든
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">외국인  대상  입국금지(3.17.)
 </t>
     </r>
     <r>
@@ -4848,7 +4904,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">상품운송인력  등,  가족  관련  긴급한  용무가  있는  자)  가  있 는  사람은  입국  가능</t>
+      <t xml:space="preserve">상품운송인력  등,  가족  관련  긴급한  용무가  있는  자)  가  있
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">는  사람은  입국  가능</t>
     </r>
   </si>
   <si>
@@ -4886,7 +4951,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  △스위스  및  리히텐슈타인  국적자,  △스위스  체류허가자,  △직업상  사유로  스 위스  입국을  해야만  하는자,  △경유자,  △긴급상황(건강상  사유  등)  의  경우  입 국  가능</t>
+      <t xml:space="preserve">※ △스위스 및 리히텐슈타인 국적자,  △스위스 체류허가자,  △직업상 사유로 스위스 입국을 해야만 하는자,  △경유자,  △긴급상황(건강상 사유 등)  의 경우 입국 가능</t>
     </r>
   </si>
   <si>
@@ -4940,7 +5005,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">상품  운송분야  종사자,  △외교관, 국제기구,  군인,  인도지원 업무 관계자의 경우 입국 가능</t>
+      <t xml:space="preserve">상품  운송분야  종사자,  △외교관,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">국제기구,  군인,  인도지원 업무 관계자의 경우 입국 가능</t>
     </r>
   </si>
   <si>
@@ -5057,7 +5131,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">국제기구  대표  및  그  가족은  입국이 허용되나 14일간 격리</t>
+      <t xml:space="preserve">국제기구  대표  및  그  가족은  입국이
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">허용되나 14일간 격리</t>
     </r>
   </si>
   <si>
@@ -5127,7 +5210,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">국 제기구 직원, 공무상 방문하는 군 관계자,  가족사고 등 인도적 사유로 인한 방문자,  인도 적 지원 관계자 등)</t>
+      <t xml:space="preserve">국 제기구 직원, 공무상 방문하는 군 관계자,  가족사고 등 인도적 사유로 인한 방문자,  인도
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">적 지원 관계자 등)</t>
     </r>
   </si>
   <si>
@@ -5174,7 +5266,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  시민권자  및  영주권자,  에스토니아에  가족이  거주하는  외국인의  경우  입국은 허용되나  입국  후  14일간  자가격리</t>
+      <t xml:space="preserve">※  시민권자  및  영주권자,  에스토니아에  가족이  거주하는  외국인의  경우  입국은
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">허용되나  입국  후  14일간  자가격리</t>
     </r>
   </si>
   <si>
@@ -5239,7 +5340,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  거주비자  또는  거주허가를  보유한  외국인(한국인  포함)  대상  입국시  14일간 자가격리</t>
+      <t xml:space="preserve">※ 거주비자 또는 거주허가를 보유한 외국인(한국인 포함)  대상 입국시 14일간 자가격리</t>
     </r>
   </si>
   <si>
@@ -5277,7 +5378,24 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  자국민  출국금지</t>
+      <t xml:space="preserve">※  자국민  출국금지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">▸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.30.-4.20.  모든  공항  폐쇄  및  항공기  운항  전면  중단  발표(3.28)</t>
     </r>
   </si>
   <si>
@@ -5693,17 +5811,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※ 제3국 국민(EU,  유럽경제지역 가입국 및 스위스 연방 제외한 모든 외국인)  중 △체류</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">허가  소지자,  △의료인,  △경유자,  △접경지역  근로자,  △필수재화  화물기사,  △군인,
+      <t xml:space="preserve">※ 제3국 국민(EU,  유럽경제지역 가입국 및 스위스 연방 제외한 모든 외국인)  중 △체류 허가  소지자,  △의료인,  △경유자,  △접경지역  근로자,  △필수재화  화물기사,  △군인,
 </t>
     </r>
     <r>
@@ -5799,7 +5907,7 @@
         <rFont val="UnDinaru"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">투르크메니스 탄</t>
+      <t xml:space="preserve">투르크메니스탄</t>
     </r>
   </si>
   <si>
@@ -5826,7 +5934,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  외교단,  국제기구  직원,  국제운항  종사자,  기업인의  경우  조건부(출입국의  필요 성이  인정되며  코로나19  관련  증상이  없을  것)  출입국  허락</t>
+      <t xml:space="preserve">※  외교단,  국제기구  직원,  국제운항  종사자,  기업인의  경우  조건부(출입국의  필요
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">성이  인정되며  코로나19  관련  증상이  없을  것)  출입국  허락</t>
     </r>
   </si>
   <si>
@@ -5855,7 +5972,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.19.-4.2.  국가비상사태  선포  및  비  EU회원국에서  오는  외국인  대상  항공편을  통한 입국 금지(3.17.)
+      <t xml:space="preserve">3.19.-4.2.  국가비상사태  선포  및  비  EU회원국에서  오는  외국인  대상  항공편을  통한
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">입국 금지(3.17.)
 </t>
     </r>
     <r>
@@ -5914,7 +6040,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">-  화물운송  차량  및  국경이동이  필요한  출퇴근자,  본국으로  귀국하려는  자국민에 한해 국경 이동 허가</t>
+      <t xml:space="preserve">-  화물운송  차량  및  국경이동이  필요한  출퇴근자,  본국으로  귀국하려는  자국민에
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">한해 국경 이동 허가</t>
     </r>
   </si>
   <si>
@@ -6318,10 +6453,9 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  입국자  중  14일  이내  이란,  이라크,  레바논  체류한  경우  시설격리  대상,  한국 등  여타  국가  체류한  경우  검진  후  14일간  자가격리  조치</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">※  입국자  중  14일  이내  이란,  이라크,  레바논  체류한  경우  시설격리  대상,  한국 등  여타  국가  체류한  경우  검진  후  14일간  자가격리  조치
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="10.0"/>
@@ -6637,7 +6771,32 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  오만  관광부,  오만  내  여행객  대상  본국  귀국  권고(3.18.)</t>
+      <t xml:space="preserve">※  오만  관광부,  오만  내  여행객  대상  본국  귀국  권고(3.18.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  3.29.부터  모든  국제선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">국내선  항공  중단</t>
     </r>
   </si>
   <si>
@@ -6713,7 +6872,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">한국,  중국,  이란,  태국,  일본,  이탈리아,  싱가포르,  쿠웨이트,  바레인,  프랑스,  스페 인  국적자에  대해  출발지와  무관하게  입국금지(3.8.)
+      <t xml:space="preserve">한국,  중국,  이란,  태국,  일본,  이탈리아,  싱가포르,  쿠웨이트,  바레인,  프랑스,  스페
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">인  국적자에  대해  출발지와  무관하게  입국금지(3.8.)
 </t>
     </r>
     <r>
@@ -6757,25 +6925,34 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(쿠르드지방정부)  2020.1.1.  이후  한국,  중국,  이란,  태국,  일본,  이탈리아,  싱가포르, 쿠웨이트,  바레인을 방문 후 입국한 외국인 대상 입국금지(2.26.)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">※  외교관  및  공식방문단은  입국가능  /  2020.1.1이후  상기  9개국  미방문자에  한해
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">입국  허용</t>
+      <t xml:space="preserve">(쿠르드지방정부)  2020.1.1.  이후  한국,  중국,  이란,  태국,  일본,  이탈리아,  싱가포르,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">쿠웨이트,  바레인을 방문 후 입국한 외국인 대상 입국금지(2.26.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※ 외교관 및 공식방문단은 입국가능 / 2020.1.1이후 상기 9개국 미방문자에 한해 입국 허용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  3.17.-4.11.  아르빌국제공항  운영  중단</t>
     </r>
   </si>
   <si>
@@ -7125,10 +7302,9 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※ 경제적 목적으로 입국하는 경우 관련 결정을 위해 사전에 유관당국에 통보 필요</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">※ 경제적 목적으로 입국하는 경우 관련 결정을 위해 사전에 유관당국에 통보 필요
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="10.0"/>
@@ -7384,25 +7560,66 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.18.부터  한국,  이탈리아,  스페인,  독일,  영국,  중국,  이란,  미국을  방문  후  입국한 외국인 대상 입국금지(3.15.)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">※  상기 국가를 방문한 외국인 대상 비자 취소 및 기발급된 비자 효력 중단,  입국 전
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20일내 상기 국가 방문 외국인 대상 비자 발급 중단</t>
+      <t xml:space="preserve">3.18.부터  한국,  이탈리아,  스페인,  독일,  영국,  중국,  이란,  미국을  방문  후  입국한
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">외국인 대상 입국금지(3.15.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  상기 국가를 방문한 외국인 대상 비자 취소 및 기발급된 비자 효력 중단,  입국 전 20일내 상기 국가 방문 외국인 대상 비자 발급 중단
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※ 항공 운항 중단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">항만 입항 금지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">육로 국경 통과 금지</t>
     </r>
   </si>
   <si>
@@ -7431,7 +7648,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.19.부터  2주간(연장  가능)  국경  봉쇄(공항,  모든  육상  국경)에  따라  모든  내외국 인  입국금지</t>
+      <t xml:space="preserve">3.19.부터  2주간(연장  가능)  국경  봉쇄(공항,  모든  육상  국경)에  따라  모든  내외국
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">인  입국금지</t>
     </r>
   </si>
   <si>
@@ -7741,16 +7967,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.16.부터  한국,  중국,  일본,  미국,  영국,  오스트리아,  덴마크,  벨기에  등  18개국을  방 문 후 입국한 외국인 대상 입국금지(3.16.)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">※  18개국에  대한  도착비자  발급중단,  기발된  비자  취소  및  발급  중단</t>
+      <t xml:space="preserve">세계보건기구(WHO)  지정 고위험국가 출발 외국인 입국 금지(3.28)</t>
     </r>
   </si>
   <si>
@@ -7822,17 +8039,7 @@
         <rFont val="UnDinaru"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">상투메프린시
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.0"/>
-        <rFont val="UnDinaru"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페</t>
+      <t xml:space="preserve">상투메프린시페</t>
     </r>
   </si>
   <si>
@@ -8039,16 +8246,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.23.  00:00부터  국경폐쇄(육로  및  항공을  통한  인적  이동  금지)에  따라  모든  외국
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">입국  금지(3.20.)</t>
+      <t xml:space="preserve">3.23.  00:00부터  국경폐쇄(육로  및  항공을  통한  인적  이동  금지)에  따라  모든  외국 입국  금지(3.20.)</t>
     </r>
   </si>
   <si>
@@ -8478,7 +8676,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">입국 전 14일 이내 한국(대구 및 경북),  중국 후베이성을 방문한 외국인 대상 입국금지 (3.15.)
+      <t xml:space="preserve">입국 전 14일 이내 한국(대구 및 경북), 중국 후베이성을 방문한 외국인 대상 입국금지(3.15.)
 </t>
     </r>
     <r>
@@ -8513,16 +8711,26 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  3.21.  0시-4.30.  모든  도착비자·e-비자  발급  중단
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">※  입국 전 14일 이내 미국,  스위스,  영국,  네덜란드,  오스트리아,  벨기에,  노르웨이, 스웨덴,  덴마크를 방문한 모든 내외국인 대상 14일간 지정시설 격리(3.20.)
+      <t xml:space="preserve">※  3.21.  0시-4.30.  모든  도착비자·e-비자  발급  중단</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  입국 전 14일 이내 미국,  스위스,  영국,  네덜란드,  오스트리아,  벨기에,  노르웨이,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">스웨덴,  덴마크를 방문한 모든 내외국인 대상 14일간 지정시설 격리(3.20.)
 </t>
     </r>
     <r>
@@ -8540,7 +8748,43 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">*  중국,  태국,  인도,  라오스,  방글라데시</t>
+      <t xml:space="preserve">*  중국,  태국,  인도,  라오스,  방글라데시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  3.29.-4.30.  외교관,  유엔관계자,  선박과  항공기  승무원을  제외한  모든  외국인 입국자에  대한  비자발급  중단  및  ASEAN회원국  포함  모든  외국인에게  상호협 정에  따라  부여된  비자  면제  중단
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  외교관과  유엔관계자는  해당국  소재  미안마  공관에서  입국  비자  신청,  코로나 19  음성  확인서(탑승전  72시간  이내  발행)  제출  의무  및  도착  후  14일간  자가 격리(3.29)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  선박  또는  항공기  승무원은  해당국  소재  미얀마  공관에서  입국  비자  신청,  교
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">통통신부  가장  최근  지침  및  지시  준수(3.29)</t>
     </r>
   </si>
   <si>
@@ -8652,16 +8896,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.20.부터  한달  간  입국하는  모든  외국인에  대한  비자면제  정책(단기방문  무비자,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">도착비자,  외교관/관용  무비자)  중단(3.17.)
+      <t xml:space="preserve">3.20.부터  한달  간  입국하는  모든  외국인에  대한  비자면제  정책(단기방문  무비자, 도착비자,  외교관/관용  무비자)  중단(3.17.)
 </t>
     </r>
     <r>
@@ -8742,17 +8977,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">-  상기 지역에 더해 3.7.부터 경북 일부지역(경산시,  안동시,  영천시,  칠곡군,  의성군,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">성주군,  군위군)을 방문 후 입국한 외국인 대상 입국금지(3.5.)
+      <t xml:space="preserve">-  상기 지역에 더해 3.7.부터 경북 일부지역(경산시,  안동시,  영천시,  칠곡군,  의성군, 성주군,  군위군)을 방문 후 입국한 외국인 대상 입국금지(3.5.)
 </t>
     </r>
     <r>
@@ -8844,7 +9069,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(항공,  선박)  3.9.부터 항공 여객편  도착공항은  나리타공항과 간사이공항으로  이용이 한정되며 선박의 경우 한국과 중국으로부터의 여객운송 중지 요청(3.5)</t>
+      <t xml:space="preserve">(항공,  선박)  3.9.부터 항공 여객편  도착공항은  나리타공항과 간사이공항으로  이용이
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">한정되며 선박의 경우 한국과 중국으로부터의 여객운송 중지 요청(3.5)</t>
     </r>
   </si>
   <si>
@@ -8932,7 +9166,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">-  중국  국내에서  필요한  경제통상,  과학기술  등  활동에  종사하거나,  긴급한  인도 주의적  이유가  있을  경우,  중국의  해외  대사관  및  영사관을  통해  입국  비자 신청  가능</t>
+      <t xml:space="preserve">-  중국 국내에서 필요한 경제통상,  과학기술 등 활동에 종사하거나,  긴급한 인도주의적
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">이유가 있을 경우,  중국의 해외 대사관 및 영사관을 통해 입국 비자 신청 가능</t>
     </r>
   </si>
   <si>
@@ -9013,16 +9256,26 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  3.18부터  해외에서  산둥성으로  입국하는  모든  내외국민의  격리비용은  자 부담이며,  기본의료보험  또는  상업보험  미가입자의  진료비용도  자부담
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">※  산둥성  각  도시는  해외입국자  사전신고제  실시(기  입국자  사후  신고)  중이며, 시/구별로  내용이  상이하므로  거주지  관계기관(주민위원회)에  상세내용  확인 필요
+      <t xml:space="preserve">※  3.18부터  해외에서  산둥성으로  입국하는  모든  내외국민의  격리비용은  자</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">부담이며,  기본의료보험  또는  상업보험  미가입자의  진료비용도  자부담
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  산둥성  각  도시는  해외입국자  사전신고제  실시(기  입국자  사후  신고)  중이며,  시/ 구별로  내용이  상이하므로  거주지  관계기관(주민위원회)에  상세내용  확인  필요
 </t>
     </r>
     <r>
@@ -9440,7 +9693,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">△국외에서  광둥성으로  입경하는  자,  △홍콩·</t>
+      <t xml:space="preserve">△국외에서  광둥성으로  입경하는  자,  △홍콩·마</t>
     </r>
     <r>
       <rPr>
@@ -9457,7 +9710,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">마카오·대만에서  광둥성으로  입경하고,  입경  전  14일  내  외국  거주·방문  기록</t>
+      <t xml:space="preserve">카오·대만에서  광둥성으로  입경하고,  입경  전  14일  내  외국  거주·방문  기록  있</t>
     </r>
     <r>
       <rPr>
@@ -9474,7 +9727,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">있는  자,  △여타  중국  지역으로  입경하여  광둥성에  도착하고,  광둥성  도착  전</t>
+      <t xml:space="preserve">는  자,  △여타  중국  지역으로  입경하여  광둥성에  도착하고,  광둥성  도착  전  14일</t>
     </r>
     <r>
       <rPr>
@@ -9491,15 +9744,15 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">14일  내  외국  거주·방문  기록이  있는  자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">는  14일간  지정시설  격리(비용  자부담) (3.25)
+      <t xml:space="preserve">내 외국 거주·방문 기록이 있는 자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">는 14일간 지정시설 격리(비용 자부담)  (3.25)
 </t>
     </r>
     <r>
@@ -9762,7 +10015,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  단,  만  70세  이상의  노인,  어린이,  임산부,  기저질환자  등은  단독  거주지가 있고  동거인이  없는  경우에  한하여,  입국  전  거주지  소재  시</t>
+      <t xml:space="preserve">※  단,  만  70세  이상의  노인,  어린이,  임산부,  기저질환자  등은  단독  거주지가
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">있고  동거인이  없는  경우에  한하여,  입국  전  거주지  소재  시</t>
     </r>
     <r>
       <rPr>
@@ -9778,7 +10040,17 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">현  지휘부에 신고  후  허가를  거쳐  자가격리  가능(필요시  보호자  1인까지  동반  자가격리 신청  가능)
+      <t xml:space="preserve">현  지휘부에</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">신고  후  허가를  거쳐  자가격리  가능(필요시  보호자  1인까지  동반  자가격리 신청  가능)
 </t>
     </r>
     <r>
@@ -9932,16 +10204,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 14일간 자가격리 또는 지정시설 격리(비용 자부담)(3.26)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">※  상하이에  고정  거주지가  있어  자가격리  대상이더라도  △유증상자의  밀접접촉자인 경우,  △고정  거주지가  자가격리  조건에  부합하지  않는  경우,  △자가격리  중 관련  규정을  준수하지  않은  경우  지정시설  격리
+      <t xml:space="preserve"> 14일간 지정시설 격리(비용  자 부담)(3.28)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  단,  노인,  미성년자,  임산부,  거동이 불편한 자,  노인 또는 어린이를 돌봐야 되는 자, 기저 질환자 등은 핵산검사 결과가  음성이고 자가격리 요건에 부합할 경우,  심사를 거쳐 자가격리 가능
 </t>
     </r>
     <r>
@@ -9968,7 +10240,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  3.25부터  상하이  홍차오  공항의  국제선(홍콩,  마카오,  대만  포함)  기능을  잠정 중단하고  이를  상하이  푸동공항으로  이전하여  운영</t>
+      <t xml:space="preserve">※  3.25부터  상하이  홍차오  공항의  국제선(홍콩,  마카오,  대만  포함)  기능을  잠정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">중단하고  이를  상하이  푸동공항으로  이전하여  운영</t>
     </r>
   </si>
   <si>
@@ -10087,26 +10368,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  목적지가  저장성인  경우,  입경  전  사전  신고  플랫폼(주상하이총영사관  홈페
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">이지  공지의  QR코드  참고)을  통해  관련  정보  기입  /  이미  입경한  경우,  거주지</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">관할사무소  또는  직장에  관련  상황  보고  및  방역  규정  준수
+      <t xml:space="preserve">※  목적지가  저장성인  경우,  입경  전  사전  신고  플랫폼(주상하이총영사관  홈페 이지  공지의  QR코드  참고)을  통해  관련  정보  기입  /  이미  입경한  경우,  거주지 관할사무소  또는  직장에  관련  상황  보고  및  방역  규정  준수
 </t>
     </r>
     <r>
@@ -10505,7 +10767,17 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  (시안  셴양공항)  입국  및  검역  절차에서  발열자가  없을  경우  지정호텔  격리, 37.3도  이상  발열자  발생시  주변  승객(기내  체온  검사시  발열자  발생시)  또는 전원(하기   후  발열자  발생시)  병원에서  발열자  검사결과  나올  때까지  1-3일 대기,  발열자 검사 결과에 따라 모든 대기 인원은 병원(양성)  또는 호텔(음성)  격리
+      <t xml:space="preserve">※  (시안  셴양공항)  입국  및  검역  절차에서  발열자가  없을  경우  지정호텔  격리, 37.3도  이상  발열자  발생시  주변  승객(기내  체온  검사시  발열자  발생시)  또는</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">전원(하기   후  발열자  발생시)  병원에서  발열자  검사결과  나올  때까지  1-3일 대기,  발열자 검사 결과에 따라 모든 대기 인원은 병원(양성)  또는 호텔(음성)  격리
 </t>
     </r>
     <r>
@@ -10767,26 +11039,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  최근  14일  내  해외에서  중국내  기타  공항만으로  입국  후  베이징에  입경하는 인원도  △사전에  거주단지에  베이징  복귀  일정과  관련  정보  통보,  △기차역/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">공항에  설치된  집결장소에서  등록절차  진행,  △핵산검사  실시  및  14일간  지정</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">시설  격리(격리  및  검사비용  자부담)
+      <t xml:space="preserve">※  최근  14일  내  해외에서  중국내  기타  공항만으로  입국  후  베이징에  입경하는 인원도  △사전에  거주단지에  베이징  복귀  일정과  관련  정보  통보,  △기차역/ 공항에  설치된  집결장소에서  등록절차  진행,  △핵산검사  실시  및  14일간  지정 시설  격리(격리  및  검사비용  자부담)
 </t>
     </r>
     <r>
@@ -10840,7 +11093,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  (해외체류  이력  없이)  중국  기타  지방성시에서  베이징에  입경하는  모든  내외 국민도  거주지  거주위원회에  사전보고  및  14일간  자가격리  필요</t>
+      <t xml:space="preserve">※  (해외체류  이력  없이)  중국  기타  지방성시에서  베이징에  입경하는  모든  내외
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">국민도  거주지  거주위원회에  사전보고  및  14일간  자가격리  필요</t>
     </r>
   </si>
   <si>
@@ -11005,7 +11267,17 @@
         <rFont val="UnDinaru"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">네이멍구 자치구</t>
+      <t xml:space="preserve">네이멍구
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.0"/>
+        <rFont val="UnDinaru"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">자치구</t>
     </r>
   </si>
   <si>
@@ -11122,7 +11394,17 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  해외에서  직접 또는 해외에서 중국  내 기타 도시를 경유하여  도착하는 내외국인은 도착 즉시 기차역,  공항 등의 검역요원과 거주단지 직원에 도착 사실 신고 필요</t>
+      <t xml:space="preserve">※  해외에서  직접 또는 해외에서 중국  내 기타 도시를 경유하여  도착하는 내외국인은</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">도착 즉시 기차역,  공항 등의 검역요원과 거주단지 직원에 도착 사실 신고 필요</t>
     </r>
   </si>
   <si>
@@ -11328,10 +11610,9 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">-  거주자는  자택,  방문객은  호텔에서  14일간  격리(비용  자부담)</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">-  거주자는  자택,  방문객은  호텔에서  14일간  격리(비용  자부담)
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="10.0"/>
@@ -11593,7 +11874,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">외국에서  입국한  모든  내외국인  대상  14일간  격리(지정시설)(3.15.)</t>
+      <t xml:space="preserve">외국에서  입국한  모든  내외국인  대상  14일간  격리(지정시설)(3.15.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※  육로국경  전면  폐쇄</t>
     </r>
   </si>
   <si>
@@ -11788,7 +12078,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.16.부터  코로나19  확진자  50명  이상  발생국을  방문  후  입국한  외국인  대상 14일간  지정시설  격리(3.14.)
+      <t xml:space="preserve">3.16.부터  코로나19  확진자  50명  이상  발생국을  방문  후  입국한  외국인  대상
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">14일간  지정시설  격리(3.14.)
 </t>
     </r>
     <r>
@@ -11880,16 +12179,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.23.  00:10(현지시간)  이후  모든  입국자  대상  14일간  격리(Ethiopian  Skylight
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Hotel,  비용  자부담)(3.22.)
+      <t xml:space="preserve">3.23.  00:10(현지시간)  이후  모든  입국자  대상  14일간  격리(Ethiopian  Skylight Hotel,  비용  자부담)(3.22.)
 </t>
     </r>
     <r>
@@ -11954,26 +12244,25 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.23.부터  코로나19  다수  발생국으로부터  입국하는  모든  여행객들  대상  14일간 격리(자부담)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-  14일  격리  후  코로나19  의심  증세가  없는  경우  격리가  해제되며,  향후  추적
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">조사가  가능하도록  연락처  등  개인  정보를  의무적  제출
+      <t xml:space="preserve">3.23.부터  코로나19  다수  발생국으로부터  입국하는  모든  여행객들  대상  14일간
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">격리(자부담)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-  14일  격리  후  코로나19  의심  증세가  없는  경우  격리가  해제되며,  향후  추적 조사가  가능하도록  연락처  등  개인  정보를  의무적  제출
 </t>
     </r>
     <r>
@@ -12010,16 +12299,15 @@
         <rFont val="Bandal"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">검역강화 및 권고 사항 등 : 19개 국가</t>
+      <t xml:space="preserve">검역강화 및 권고 사항 등 : </t>
     </r>
     <r>
       <rPr>
         <sz val="14.0"/>
-        <color rgb="FF181818"/>
-        <rFont val="VL PGothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">․</t>
+        <rFont val="Bandal"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20개 </t>
     </r>
     <r>
       <rPr>
@@ -12028,6 +12316,24 @@
         <rFont val="Bandal"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">국가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.0"/>
+        <color rgb="FF181818"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">․</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.0"/>
+        <color rgb="FF181818"/>
+        <rFont val="Bandal"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">지역
 </t>
     </r>
@@ -12272,9 +12578,10 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(격리조치) 2.15 이후 한국, 중국, 이탈리아, 이란, 프랑스, 스페인, 독일을 방문한 여행객 에 대해 최소 14일간 별도 시설 또는 자가격리(3.13.부터)
-</t>
-    </r>
+      <t xml:space="preserve">(격리조치) 2.15 이후 한국, 중국, 이탈리아, 이란, 프랑스, 스페인, 독일을 방문한 여행객 에 대해 최소 14일간 별도 시설 또는 자가격리(3.13.부터)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.0"/>
@@ -12343,6 +12650,127 @@
         <rFont val="UnDinaru"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">캄보디아</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">▸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">모든 외국인 입국제한(3.30 23:59부터)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">▸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(신규비자 발급 중단) 1개월간 무사증입국중단, 여행비자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">e비자발급</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">도착비자 발급중단
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">▸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(코로나 19 음성확인서)  캄보디아로 입국하려는 모든 외국인은 해당국 캄보디아 대사 관에서  비자를  신청하고,  72시간  이내  발급된 코로나  19  음성확인서  및 5만불  이상 커버리지 보험증 제출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">※ 외교관 Diplomatic Visa A 및 공무 Official Visa B 소지자는 예외
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="VL PGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">▸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(격리조치) 캄보디아 도착시 보건 담당자의 건강 체크 후 안내에 따라 의무격리지침 이행</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.0"/>
+        <rFont val="UnDinaru"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">파키스탄</t>
     </r>
   </si>
@@ -12361,16 +12789,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">3.21  20:00-  4.4.  20:00까지  모든  입국  항공편(사실상  파키스탄  향발  입출국  모든
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">항공편)  운항  전면  중단(3.21.)
+      <t xml:space="preserve">3.21  20:00-  4.4.  20:00까지  모든  입국  항공편(사실상  파키스탄  향발  입출국  모든 항공편)  운항  전면  중단(3.21.)
 </t>
     </r>
     <r>
@@ -12502,16 +12921,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">한국,  중국,  일본,  싱가포르,  홍콩,  이란,  이탈리아를  방문  후  입국한  내외국민
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">대상  △경증증상  시  자가  격리  상태에서  14일간  매일  의료진의  문진  또는  원격 으로  모니터링  진행,  △중증증상  시  병원으로  이송하여,  정밀검사  실시(48시간
+      <t xml:space="preserve">한국,  중국,  일본,  싱가포르,  홍콩,  이란,  이탈리아를  방문  후  입국한  내외국민 대상  △경증증상  시  자가  격리  상태에서  14일간  매일  의료진의  문진  또는  원격
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">으로  모니터링  진행,  △중증증상  시  병원으로  이송하여,  정밀검사  실시(48시간
 </t>
     </r>
     <r>
@@ -12787,16 +13206,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">※  유증상자  7일간  자가  격리  및  증상  악화  시  온라인(111.nhs.uk)  또는  유선
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(999)으로  연락</t>
+      <t xml:space="preserve">※  유증상자  7일간  자가  격리  및  증상  악화  시  온라인(111.nhs.uk)  또는  유선 (999)으로  연락</t>
     </r>
   </si>
   <si>
@@ -12881,7 +13291,16 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">코로나19(확진자  500명  이상)  발생국으로부터  입국하는  내외국인  대상,  △경증  증 상 시 14일간 자가격리 상태에서 일일 건강 모니터링,  △중증증상 시 격리시설 이송
+      <t xml:space="preserve">코로나19(확진자  500명  이상)  발생국으로부터  입국하는  내외국인  대상,  △경증  증
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+        <rFont val="WenQuanYi Micro Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">상 시 14일간 자가격리 상태에서 일일 건강 모니터링,  △중증증상 시 격리시설 이송
 </t>
     </r>
     <r>
@@ -13168,16 +13587,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">,  에스토니아,  오스트리아,  이탈리아,  체코,  포르투갈,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">폴란드,  프랑스,  핀란드,  헝가리,  </t>
+      <t xml:space="preserve">,  에스토니아,  오스트리아,  이탈리아,  체코,  포르투갈, 폴란드,  프랑스,  핀란드,  헝가리,  </t>
     </r>
     <r>
       <rPr>
@@ -13210,10 +13620,9 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">쉥겐협약  가입국)</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">쉥겐협약  가입국)
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="12.0"/>
@@ -13237,16 +13646,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">,  덴마크,  독일,  라트비아,  룩
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">셈부르크,  리투아니아,  </t>
+      <t xml:space="preserve">,  덴마크,  독일,  라트비아,  룩 셈부르크,  리투아니아,  </t>
     </r>
     <r>
       <rPr>
@@ -13297,16 +13697,7 @@
         <rFont val="WenQuanYi Micro Hei"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">,  에스토니아,  오스트리아,  이탈리아,  체코,  포
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="WenQuanYi Micro Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">르투갈,  폴란드,  프랑스,  핀란드,  헝가리  (밑줄  국가는  </t>
+      <t xml:space="preserve">,  에스토니아,  오스트리아,  이탈리아,  체코,  포 르투갈,  폴란드,  프랑스,  핀란드,  헝가리  (밑줄  국가는  </t>
     </r>
     <r>
       <rPr>
@@ -13518,7 +13909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="57">
     <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -13597,8 +13988,8 @@
     <xf numFmtId="0" fillId="0" borderId="5" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="5" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" wrapText="1"/>
+    <xf numFmtId="0" fillId="0" borderId="5" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="9" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13608,9 +13999,6 @@
     </xf>
     <xf numFmtId="0" fillId="0" borderId="11" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="5" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="5" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -13634,64 +14022,10 @@
       <alignment horizontal="left" vertical="top" indent="1" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="5" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="6" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="8" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="7" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="6" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="8" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="7" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="5" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="5" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="6" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="8" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="7" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="5" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="6" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="8" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="7" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="5" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="6" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="8" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="7" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="9" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" wrapText="1"/>
@@ -13702,14 +14036,23 @@
     <xf numFmtId="0" fillId="0" borderId="9" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fillId="0" borderId="10" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fillId="0" borderId="11" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="5" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="0" fontId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="5" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="5" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="5" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -13717,8 +14060,23 @@
     <xf numFmtId="0" fillId="0" borderId="5" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="10" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fillId="0" borderId="5" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="5" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="5" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="5" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="5" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="5" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
@@ -13737,11 +14095,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>44361</xdr:colOff>
+      <xdr:colOff>196342</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>232250</xdr:rowOff>
+      <xdr:rowOff>231719</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6083935" cy="0"/>
+    <xdr:ext cx="6073140" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr name="Shape 2" id="2"/>
@@ -13750,22 +14108,22 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6083935" cy="0"/>
+          <a:ext cx="6073140" cy="0"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:pathLst>
-            <a:path w="6083935" h="0">
+            <a:path w="6073140" h="0">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="6083414" y="0"/>
+                <a:pt x="6072911" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
         </a:custGeom>
-        <a:ln w="71716">
+        <a:ln w="71589">
           <a:solidFill>
             <a:srgbClr val="6699FF"/>
           </a:solidFill>
@@ -13777,11 +14135,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>78409</xdr:colOff>
+      <xdr:colOff>77330</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>485654</xdr:rowOff>
+      <xdr:rowOff>484498</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6071235" cy="0"/>
+    <xdr:ext cx="6061075" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr name="Shape 3" id="3"/>
@@ -13790,22 +14148,22 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6071235" cy="0"/>
+          <a:ext cx="6061075" cy="0"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:pathLst>
-            <a:path w="6071235" h="0">
+            <a:path w="6061075" h="0">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="6071196" y="0"/>
+                <a:pt x="6060744" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
         </a:custGeom>
-        <a:ln w="71716">
+        <a:ln w="71589">
           <a:solidFill>
             <a:srgbClr val="6699FF"/>
           </a:solidFill>
@@ -13822,11 +14180,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>71805</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>223761</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>2286</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="516255" cy="0"/>
+    <xdr:ext cx="514984" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr name="Shape 4" id="4"/>
@@ -13835,17 +14193,17 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="516255" cy="0"/>
+          <a:ext cx="514984" cy="0"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:pathLst>
-            <a:path w="516255" h="0">
+            <a:path w="514984" h="0">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="515721" y="0"/>
+                <a:pt x="514832" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13862,11 +14220,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>71805</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>673722</xdr:rowOff>
+      <xdr:colOff>223761</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>672122</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="516255" cy="0"/>
+    <xdr:ext cx="514984" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr name="Shape 5" id="5"/>
@@ -13875,17 +14233,17 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="516255" cy="0"/>
+          <a:ext cx="514984" cy="0"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:pathLst>
-            <a:path w="516255" h="0">
+            <a:path w="514984" h="0">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="515721" y="0"/>
+                <a:pt x="514832" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13902,9 +14260,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4653724</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>154127</xdr:rowOff>
+      <xdr:colOff>4645698</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155283</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1905" cy="0"/>
     <xdr:sp>
@@ -13922,10 +14280,10 @@
           <a:pathLst>
             <a:path w="1905" h="0">
               <a:moveTo>
-                <a:pt x="762" y="-2285"/>
+                <a:pt x="761" y="-2286"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="762" y="2285"/>
+                <a:pt x="761" y="2286"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13942,9 +14300,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4653724</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>219735</xdr:rowOff>
+      <xdr:colOff>4645698</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>184201</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1905" cy="0"/>
     <xdr:sp>
@@ -13962,15 +14320,55 @@
           <a:pathLst>
             <a:path w="1905" h="0">
               <a:moveTo>
-                <a:pt x="762" y="-2286"/>
+                <a:pt x="761" y="-2286"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="762" y="2286"/>
+                <a:pt x="761" y="2285"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
         </a:custGeom>
         <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>223761</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2286</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514984" cy="0"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr name="Shape 8" id="8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="514984" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:pathLst>
+            <a:path w="514984" h="0">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="514832" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln w="4572">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -13987,30 +14385,30 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>71805</xdr:colOff>
+      <xdr:colOff>223761</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180824</xdr:rowOff>
+      <xdr:rowOff>180399</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="516255" cy="0"/>
+    <xdr:ext cx="514984" cy="0"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr name="Shape 8" id="8"/>
+        <xdr:cNvPr name="Shape 9" id="9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="516255" cy="0"/>
+          <a:ext cx="514984" cy="0"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:pathLst>
-            <a:path w="516255" h="0">
+            <a:path w="514984" h="0">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="515721" y="0"/>
+                <a:pt x="514832" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14312,7 +14710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14320,10 +14718,10 @@
   <cols>
     <col min="1" max="1" customWidth="1" width="9.555556"/>
     <col min="2" max="2" customWidth="1" width="15.333333"/>
-    <col min="3" max="3" customWidth="1" width="32.666667"/>
-    <col min="4" max="4" customWidth="1" width="22.444444"/>
+    <col min="3" max="3" customWidth="1" width="32.222222"/>
+    <col min="4" max="4" customWidth="1" width="22.666667"/>
     <col min="5" max="5" customWidth="1" width="26"/>
-    <col min="6" max="6" customWidth="1" width="7.777778"/>
+    <col min="6" max="6" customWidth="1" width="7.555556"/>
     <col min="7" max="7" customWidth="1" width="3.111111"/>
   </cols>
   <sheetData>
@@ -14489,9 +14887,9 @@
       <c r="F14" s="24"/>
       <c r="G14" s="0"/>
     </row>
-    <row r="15" spans="1:7" ht="52.25" customHeight="1">
+    <row r="15" spans="1:7" ht="46.50" customHeight="1">
       <c r="A15" s="18"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -14502,7 +14900,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="0"/>
     </row>
-    <row r="16" spans="1:7" ht="127.75" customHeight="1">
+    <row r="16" spans="1:7" ht="123.00" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="25" t="s">
         <v>20</v>
@@ -14515,7 +14913,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="0"/>
     </row>
-    <row r="17" spans="1:7" ht="42.00" customHeight="1">
+    <row r="17" spans="1:7" ht="82.50" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="20" t="s">
         <v>22</v>
@@ -14528,7 +14926,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="0"/>
     </row>
-    <row r="18" spans="1:7" ht="35.50" customHeight="1">
+    <row r="18" spans="1:7" ht="43.50" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="20" t="s">
         <v>24</v>
@@ -14541,7 +14939,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="0"/>
     </row>
-    <row r="19" spans="1:7" ht="40.50" customHeight="1">
+    <row r="19" spans="1:7" ht="28.75" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="26" t="s">
         <v>26</v>
@@ -14554,7 +14952,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="0"/>
     </row>
-    <row r="20" spans="1:7" ht="143.25" customHeight="1">
+    <row r="20" spans="1:7" ht="123.00" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="25" t="s">
         <v>28</v>
@@ -14580,7 +14978,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="0"/>
     </row>
-    <row r="22" spans="1:7" ht="46.75" customHeight="1">
+    <row r="22" spans="1:7" ht="46.50" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="25" t="s">
         <v>30</v>
@@ -14632,7 +15030,7 @@
       <c r="F25" s="24"/>
       <c r="G25" s="0"/>
     </row>
-    <row r="26" spans="1:7" ht="144.25" customHeight="1">
+    <row r="26" spans="1:7" ht="205.50" customHeight="1">
       <c r="A26" s="28"/>
       <c r="B26" s="25" t="s">
         <v>38</v>
@@ -14684,9 +15082,9 @@
       <c r="F29" s="24"/>
       <c r="G29" s="0"/>
     </row>
-    <row r="30" spans="1:7" ht="60.50" customHeight="1">
+    <row r="30" spans="1:7" ht="46.25" customHeight="1">
       <c r="A30" s="28"/>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="26" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="22" t="s">
@@ -14762,7 +15160,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="0"/>
     </row>
-    <row r="36" spans="1:7" ht="62.75" customHeight="1">
+    <row r="36" spans="1:7" ht="62.50" customHeight="1">
       <c r="A36" s="28"/>
       <c r="B36" s="25" t="s">
         <v>58</v>
@@ -14776,7 +15174,7 @@
       <c r="G36" s="0"/>
     </row>
     <row r="37" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A37" s="28"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="20" t="s">
         <v>60</v>
       </c>
@@ -14788,35 +15186,35 @@
       <c r="F37" s="24"/>
       <c r="G37" s="0"/>
     </row>
-    <row r="38" spans="1:7" ht="62.25" customHeight="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="20" t="s">
+    <row r="38" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="0"/>
+    </row>
+    <row r="39" spans="1:7" ht="62.25" customHeight="1">
+      <c r="A39" s="27"/>
+      <c r="B39" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C39" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="0"/>
-    </row>
-    <row r="39" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="14"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="0"/>
     </row>
-    <row r="40" spans="1:7" ht="49.50" customHeight="1">
-      <c r="A40" s="27"/>
-      <c r="B40" s="31" t="s">
+    <row r="40" spans="1:7" ht="49.25" customHeight="1">
+      <c r="A40" s="28"/>
+      <c r="B40" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="22" t="s">
@@ -14840,9 +15238,9 @@
       <c r="F41" s="24"/>
       <c r="G41" s="0"/>
     </row>
-    <row r="42" spans="1:7" ht="234.00" customHeight="1">
+    <row r="42" spans="1:7" ht="233.50" customHeight="1">
       <c r="A42" s="28"/>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="22" t="s">
@@ -14866,7 +15264,7 @@
       <c r="F43" s="24"/>
       <c r="G43" s="0"/>
     </row>
-    <row r="44" spans="1:7" ht="101.50" customHeight="1">
+    <row r="44" spans="1:7" ht="104.25" customHeight="1">
       <c r="A44" s="29"/>
       <c r="B44" s="25" t="s">
         <v>72</v>
@@ -14880,10 +15278,10 @@
       <c r="G44" s="0"/>
     </row>
     <row r="45" spans="1:7" ht="42.00" customHeight="1">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="36" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="22" t="s">
@@ -14895,8 +15293,8 @@
       <c r="G45" s="0"/>
     </row>
     <row r="46" spans="1:7" ht="62.25" customHeight="1">
-      <c r="A46" s="35"/>
-      <c r="B46" s="37" t="s">
+      <c r="A46" s="34"/>
+      <c r="B46" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="22" t="s">
@@ -14908,8 +15306,8 @@
       <c r="G46" s="0"/>
     </row>
     <row r="47" spans="1:7" ht="40.50" customHeight="1">
-      <c r="A47" s="35"/>
-      <c r="B47" s="26" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C47" s="22" t="s">
@@ -14921,8 +15319,8 @@
       <c r="G47" s="0"/>
     </row>
     <row r="48" spans="1:7" ht="82.50" customHeight="1">
-      <c r="A48" s="35"/>
-      <c r="B48" s="30" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="26" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="22" t="s">
@@ -14934,8 +15332,8 @@
       <c r="G48" s="0"/>
     </row>
     <row r="49" spans="1:7" ht="42.00" customHeight="1">
-      <c r="A49" s="35"/>
-      <c r="B49" s="30" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="26" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="22" t="s">
@@ -14948,7 +15346,7 @@
     </row>
     <row r="50" spans="1:7" ht="42.00" customHeight="1">
       <c r="A50" s="35"/>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="26" t="s">
         <v>85</v>
       </c>
       <c r="C50" s="22" t="s">
@@ -14959,89 +15357,91 @@
       <c r="F50" s="24"/>
       <c r="G50" s="0"/>
     </row>
-    <row r="51" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A51" s="36"/>
-      <c r="B51" s="30" t="s">
+    <row r="51" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="0"/>
+    </row>
+    <row r="52" spans="1:7" ht="62.25" customHeight="1">
+      <c r="A52" s="27"/>
+      <c r="B52" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C52" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="0"/>
-    </row>
-    <row r="52" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A52" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="14"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="24"/>
       <c r="G52" s="0"/>
     </row>
-    <row r="53" spans="1:7" ht="121.50" customHeight="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="42" t="s">
+    <row r="53" spans="1:7" ht="42.00" customHeight="1">
+      <c r="A53" s="28"/>
+      <c r="B53" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="44"/>
+      <c r="C53" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="24"/>
       <c r="G53" s="0"/>
     </row>
-    <row r="54" spans="1:7" ht="42.00" customHeight="1">
+    <row r="54" spans="1:7" ht="21.75" customHeight="1">
       <c r="A54" s="28"/>
-      <c r="B54" s="45" t="s">
-        <v>90</v>
+      <c r="B54" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
       <c r="F54" s="24"/>
       <c r="G54" s="0"/>
     </row>
-    <row r="55" spans="1:7" ht="21.75" customHeight="1">
+    <row r="55" spans="1:7" ht="26.75" customHeight="1">
       <c r="A55" s="28"/>
-      <c r="B55" s="30" t="s">
-        <v>92</v>
+      <c r="B55" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
       <c r="F55" s="24"/>
       <c r="G55" s="0"/>
     </row>
-    <row r="56" spans="1:7" ht="27.00" customHeight="1">
+    <row r="56" spans="1:7" ht="22.00" customHeight="1">
       <c r="A56" s="28"/>
-      <c r="B56" s="30" t="s">
-        <v>94</v>
+      <c r="B56" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
       <c r="F56" s="24"/>
       <c r="G56" s="0"/>
     </row>
-    <row r="57" spans="1:7" ht="22.00" customHeight="1">
+    <row r="57" spans="1:7" ht="42.00" customHeight="1">
       <c r="A57" s="28"/>
-      <c r="B57" s="37" t="s">
-        <v>96</v>
+      <c r="B57" s="38" t="s">
+        <v>97</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
@@ -15050,11 +15450,11 @@
     </row>
     <row r="58" spans="1:7" ht="42.00" customHeight="1">
       <c r="A58" s="28"/>
-      <c r="B58" s="45" t="s">
-        <v>98</v>
+      <c r="B58" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
@@ -15063,102 +15463,102 @@
     </row>
     <row r="59" spans="1:7" ht="42.00" customHeight="1">
       <c r="A59" s="28"/>
-      <c r="B59" s="37" t="s">
-        <v>100</v>
+      <c r="B59" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
       <c r="F59" s="24"/>
       <c r="G59" s="0"/>
     </row>
-    <row r="60" spans="1:7" ht="42.00" customHeight="1">
+    <row r="60" spans="1:7" ht="82.50" customHeight="1">
       <c r="A60" s="28"/>
-      <c r="B60" s="37" t="s">
-        <v>102</v>
+      <c r="B60" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
       <c r="F60" s="24"/>
       <c r="G60" s="0"/>
     </row>
-    <row r="61" spans="1:7" ht="82.50" customHeight="1">
+    <row r="61" spans="1:7" ht="24.00" customHeight="1">
       <c r="A61" s="28"/>
-      <c r="B61" s="33" t="s">
-        <v>104</v>
+      <c r="B61" s="36" t="s">
+        <v>105</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
       <c r="F61" s="24"/>
       <c r="G61" s="0"/>
     </row>
-    <row r="62" spans="1:7" ht="21.75" customHeight="1">
+    <row r="62" spans="1:7" ht="74.00" customHeight="1">
       <c r="A62" s="28"/>
-      <c r="B62" s="37" t="s">
-        <v>106</v>
+      <c r="B62" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="24"/>
       <c r="G62" s="0"/>
     </row>
-    <row r="63" spans="1:7" ht="74.25" customHeight="1">
+    <row r="63" spans="1:7" ht="46.50" customHeight="1">
       <c r="A63" s="28"/>
-      <c r="B63" s="33" t="s">
-        <v>108</v>
+      <c r="B63" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="24"/>
       <c r="G63" s="0"/>
     </row>
-    <row r="64" spans="1:7" ht="49.50" customHeight="1">
+    <row r="64" spans="1:7" ht="166.50" customHeight="1">
       <c r="A64" s="28"/>
-      <c r="B64" s="25" t="s">
-        <v>110</v>
+      <c r="B64" s="31" t="s">
+        <v>111</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="24"/>
       <c r="G64" s="0"/>
     </row>
-    <row r="65" spans="1:7" ht="167.00" customHeight="1">
+    <row r="65" spans="1:7" ht="46.50" customHeight="1">
       <c r="A65" s="28"/>
       <c r="B65" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
       <c r="F65" s="24"/>
       <c r="G65" s="0"/>
     </row>
-    <row r="66" spans="1:7" ht="52.75" customHeight="1">
+    <row r="66" spans="1:7" ht="104.25" customHeight="1">
       <c r="A66" s="29"/>
-      <c r="B66" s="37" t="s">
-        <v>114</v>
+      <c r="B66" s="32" t="s">
+        <v>115</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -15178,39 +15578,39 @@
       <c r="F67" s="14"/>
       <c r="G67" s="0"/>
     </row>
-    <row r="68" spans="1:7" ht="104.25" customHeight="1">
+    <row r="68" spans="1:7" ht="42.00" customHeight="1">
       <c r="A68" s="27"/>
-      <c r="B68" s="25" t="s">
-        <v>116</v>
+      <c r="B68" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
       <c r="F68" s="24"/>
       <c r="G68" s="0"/>
     </row>
-    <row r="69" spans="1:7" ht="42.00" customHeight="1">
+    <row r="69" spans="1:7" ht="46.50" customHeight="1">
       <c r="A69" s="28"/>
-      <c r="B69" s="20" t="s">
-        <v>118</v>
+      <c r="B69" s="36" t="s">
+        <v>119</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
       <c r="F69" s="24"/>
       <c r="G69" s="0"/>
     </row>
-    <row r="70" spans="1:7" ht="49.50" customHeight="1">
+    <row r="70" spans="1:7" ht="63.75" customHeight="1">
       <c r="A70" s="28"/>
-      <c r="B70" s="37" t="s">
-        <v>120</v>
+      <c r="B70" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
@@ -15220,244 +15620,246 @@
     <row r="71" spans="1:7" ht="63.75" customHeight="1">
       <c r="A71" s="28"/>
       <c r="B71" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
       <c r="F71" s="24"/>
       <c r="G71" s="0"/>
     </row>
-    <row r="72" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A72" s="28"/>
+    <row r="72" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A72" s="29"/>
       <c r="B72" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
       <c r="F72" s="24"/>
       <c r="G72" s="0"/>
     </row>
-    <row r="73" spans="1:7" ht="33.25" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="20" t="s">
-        <v>126</v>
+    <row r="73" spans="1:7" ht="104.25" customHeight="1">
+      <c r="A73" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
       <c r="F73" s="24"/>
       <c r="G73" s="0"/>
     </row>
-    <row r="74" spans="1:7" ht="104.25" customHeight="1">
-      <c r="A74" s="34" t="s">
-        <v>128</v>
-      </c>
+    <row r="74" spans="1:7" ht="110.75" customHeight="1">
+      <c r="A74" s="34"/>
       <c r="B74" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="24"/>
       <c r="G74" s="0"/>
     </row>
-    <row r="75" spans="1:7" ht="122.00" customHeight="1">
-      <c r="A75" s="35"/>
+    <row r="75" spans="1:7" ht="85.50" customHeight="1">
+      <c r="A75" s="34"/>
       <c r="B75" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
       <c r="F75" s="24"/>
       <c r="G75" s="0"/>
     </row>
-    <row r="76" spans="1:7" ht="85.75" customHeight="1">
-      <c r="A76" s="35"/>
-      <c r="B76" s="25" t="s">
-        <v>133</v>
+    <row r="76" spans="1:7" ht="84.00" customHeight="1">
+      <c r="A76" s="34"/>
+      <c r="B76" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="24"/>
       <c r="G76" s="0"/>
     </row>
-    <row r="77" spans="1:7" ht="84.00" customHeight="1">
+    <row r="77" spans="1:7" ht="192.00" customHeight="1">
       <c r="A77" s="35"/>
-      <c r="B77" s="20" t="s">
-        <v>135</v>
+      <c r="B77" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="23"/>
       <c r="F77" s="24"/>
       <c r="G77" s="0"/>
     </row>
-    <row r="78" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A78" s="36"/>
-      <c r="B78" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" s="22" t="s">
+    <row r="78" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="0"/>
+    </row>
+    <row r="79" spans="1:7" ht="42.00" customHeight="1">
+      <c r="A79" s="27"/>
+      <c r="B79" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="0"/>
-    </row>
-    <row r="79" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="14"/>
+      <c r="C79" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="24"/>
       <c r="G79" s="0"/>
     </row>
-    <row r="80" spans="1:7" ht="131.00" customHeight="1">
-      <c r="A80" s="27"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="49"/>
+    <row r="80" spans="1:7" ht="149.75" customHeight="1">
+      <c r="A80" s="28"/>
+      <c r="B80" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="24"/>
       <c r="G80" s="0"/>
     </row>
-    <row r="81" spans="1:7" ht="42.00" customHeight="1">
+    <row r="81" spans="1:7" ht="111.00" customHeight="1">
       <c r="A81" s="28"/>
-      <c r="B81" s="20" t="s">
-        <v>140</v>
+      <c r="B81" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
       <c r="F81" s="24"/>
       <c r="G81" s="0"/>
     </row>
-    <row r="82" spans="1:7" ht="85.75" customHeight="1">
+    <row r="82" spans="1:7" ht="99.50" customHeight="1">
       <c r="A82" s="28"/>
       <c r="B82" s="25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
       <c r="F82" s="24"/>
       <c r="G82" s="0"/>
     </row>
-    <row r="83" spans="1:7" ht="119.75" customHeight="1">
+    <row r="83" spans="1:7" ht="42.00" customHeight="1">
       <c r="A83" s="28"/>
-      <c r="B83" s="25" t="s">
-        <v>144</v>
+      <c r="B83" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
       <c r="F83" s="24"/>
       <c r="G83" s="0"/>
     </row>
-    <row r="84" spans="1:7" ht="119.50" customHeight="1">
+    <row r="84" spans="1:7" ht="42.00" customHeight="1">
       <c r="A84" s="28"/>
-      <c r="B84" s="25" t="s">
-        <v>146</v>
+      <c r="B84" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
       <c r="F84" s="24"/>
       <c r="G84" s="0"/>
     </row>
-    <row r="85" spans="1:7" ht="42.00" customHeight="1">
+    <row r="85" spans="1:7" ht="104.25" customHeight="1">
       <c r="A85" s="28"/>
       <c r="B85" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
       <c r="F85" s="24"/>
       <c r="G85" s="0"/>
     </row>
-    <row r="86" spans="1:7" ht="42.00" customHeight="1">
+    <row r="86" spans="1:7" ht="70.25" customHeight="1">
       <c r="A86" s="28"/>
-      <c r="B86" s="20" t="s">
-        <v>150</v>
+      <c r="B86" s="25" t="s">
+        <v>152</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="24"/>
       <c r="G86" s="0"/>
     </row>
-    <row r="87" spans="1:7" ht="84.00" customHeight="1">
+    <row r="87" spans="1:7" ht="62.25" customHeight="1">
       <c r="A87" s="28"/>
-      <c r="B87" s="25" t="s">
-        <v>152</v>
+      <c r="B87" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
       <c r="F87" s="24"/>
       <c r="G87" s="0"/>
     </row>
-    <row r="88" spans="1:7" ht="79.00" customHeight="1">
+    <row r="88" spans="1:7" ht="21.75" customHeight="1">
       <c r="A88" s="28"/>
-      <c r="B88" s="25" t="s">
-        <v>154</v>
+      <c r="B88" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
       <c r="F88" s="24"/>
       <c r="G88" s="0"/>
     </row>
-    <row r="89" spans="1:7" ht="42.00" customHeight="1">
+    <row r="89" spans="1:7" ht="84.00" customHeight="1">
       <c r="A89" s="29"/>
-      <c r="B89" s="38" t="s">
-        <v>156</v>
+      <c r="B89" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
@@ -15477,141 +15879,143 @@
       <c r="F90" s="14"/>
       <c r="G90" s="0"/>
     </row>
-    <row r="91" spans="1:7" ht="40.50" customHeight="1">
+    <row r="91" spans="1:7" ht="82.50" customHeight="1">
       <c r="A91" s="27"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="49"/>
+      <c r="B91" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="24"/>
       <c r="G91" s="0"/>
     </row>
-    <row r="92" spans="1:7" ht="21.75" customHeight="1">
+    <row r="92" spans="1:7" ht="62.25" customHeight="1">
       <c r="A92" s="28"/>
       <c r="B92" s="20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
       <c r="F92" s="24"/>
       <c r="G92" s="0"/>
     </row>
-    <row r="93" spans="1:7" ht="88.50" customHeight="1">
+    <row r="93" spans="1:7" ht="84.00" customHeight="1">
       <c r="A93" s="28"/>
       <c r="B93" s="25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
       <c r="F93" s="24"/>
       <c r="G93" s="0"/>
     </row>
-    <row r="94" spans="1:7" ht="74.50" customHeight="1">
+    <row r="94" spans="1:7" ht="46.25" customHeight="1">
       <c r="A94" s="28"/>
       <c r="B94" s="25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
       <c r="F94" s="24"/>
       <c r="G94" s="0"/>
     </row>
-    <row r="95" spans="1:7" ht="46.50" customHeight="1">
+    <row r="95" spans="1:7" ht="71.75" customHeight="1">
       <c r="A95" s="28"/>
       <c r="B95" s="25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
       <c r="F95" s="24"/>
       <c r="G95" s="0"/>
     </row>
-    <row r="96" spans="1:7" ht="83.00" customHeight="1">
+    <row r="96" spans="1:7" ht="71.50" customHeight="1">
       <c r="A96" s="28"/>
       <c r="B96" s="25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="24"/>
       <c r="G96" s="0"/>
     </row>
-    <row r="97" spans="1:7" ht="63.50" customHeight="1">
+    <row r="97" spans="1:7" ht="63.75" customHeight="1">
       <c r="A97" s="28"/>
-      <c r="B97" s="25" t="s">
-        <v>169</v>
+      <c r="B97" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
       <c r="F97" s="24"/>
       <c r="G97" s="0"/>
     </row>
-    <row r="98" spans="1:7" ht="83.25" customHeight="1">
+    <row r="98" spans="1:7" ht="85.50" customHeight="1">
       <c r="A98" s="28"/>
       <c r="B98" s="25" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
       <c r="F98" s="24"/>
       <c r="G98" s="0"/>
     </row>
-    <row r="99" spans="1:7" ht="77.50" customHeight="1">
+    <row r="99" spans="1:7" ht="82.50" customHeight="1">
       <c r="A99" s="28"/>
-      <c r="B99" s="25" t="s">
-        <v>173</v>
+      <c r="B99" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
       <c r="F99" s="24"/>
       <c r="G99" s="0"/>
     </row>
-    <row r="100" spans="1:7" ht="84.25" customHeight="1">
+    <row r="100" spans="1:7" ht="130.00" customHeight="1">
       <c r="A100" s="28"/>
       <c r="B100" s="25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
       <c r="F100" s="24"/>
       <c r="G100" s="0"/>
     </row>
-    <row r="101" spans="1:7" ht="90.00" customHeight="1">
+    <row r="101" spans="1:7" ht="63.75" customHeight="1">
       <c r="A101" s="29"/>
-      <c r="B101" s="25" t="s">
-        <v>177</v>
+      <c r="B101" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
@@ -15631,26 +16035,26 @@
       <c r="F102" s="14"/>
       <c r="G102" s="0"/>
     </row>
-    <row r="103" spans="1:7" ht="62.25" customHeight="1">
+    <row r="103" spans="1:7" ht="65.25" customHeight="1">
       <c r="A103" s="27"/>
       <c r="B103" s="25" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
       <c r="F103" s="24"/>
       <c r="G103" s="0"/>
     </row>
-    <row r="104" spans="1:7" ht="144.50" customHeight="1">
+    <row r="104" spans="1:7" ht="82.50" customHeight="1">
       <c r="A104" s="28"/>
       <c r="B104" s="25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
@@ -15660,346 +16064,348 @@
     <row r="105" spans="1:7" ht="42.00" customHeight="1">
       <c r="A105" s="28"/>
       <c r="B105" s="20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
       <c r="F105" s="24"/>
       <c r="G105" s="0"/>
     </row>
-    <row r="106" spans="1:7" ht="65.25" customHeight="1">
+    <row r="106" spans="1:7" ht="194.50" customHeight="1">
       <c r="A106" s="28"/>
       <c r="B106" s="25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
       <c r="F106" s="24"/>
       <c r="G106" s="0"/>
     </row>
-    <row r="107" spans="1:7" ht="82.50" customHeight="1">
+    <row r="107" spans="1:7" ht="91.00" customHeight="1">
       <c r="A107" s="28"/>
       <c r="B107" s="25" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
       <c r="F107" s="24"/>
       <c r="G107" s="0"/>
     </row>
-    <row r="108" spans="1:7" ht="42.00" customHeight="1">
+    <row r="108" spans="1:7" ht="62.25" customHeight="1">
       <c r="A108" s="28"/>
       <c r="B108" s="25" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
       <c r="F108" s="24"/>
       <c r="G108" s="0"/>
     </row>
-    <row r="109" spans="1:7" ht="200.75" customHeight="1">
+    <row r="109" spans="1:7" ht="21.75" customHeight="1">
       <c r="A109" s="28"/>
-      <c r="B109" s="25" t="s">
-        <v>191</v>
+      <c r="B109" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
       <c r="F109" s="24"/>
       <c r="G109" s="0"/>
     </row>
-    <row r="110" spans="1:7" ht="94.00" customHeight="1">
+    <row r="110" spans="1:7" ht="85.50" customHeight="1">
       <c r="A110" s="28"/>
       <c r="B110" s="25" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
       <c r="F110" s="24"/>
       <c r="G110" s="0"/>
     </row>
-    <row r="111" spans="1:7" ht="42.00" customHeight="1">
-      <c r="A111" s="29"/>
+    <row r="111" spans="1:7" ht="62.25" customHeight="1">
+      <c r="A111" s="28"/>
       <c r="B111" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C111" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="53"/>
+        <v>198</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="24"/>
       <c r="G111" s="0"/>
     </row>
-    <row r="112" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A112" s="13" t="s">
+    <row r="112" spans="1:7" ht="124.50" customHeight="1">
+      <c r="A112" s="29"/>
+      <c r="B112" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="0"/>
+    </row>
+    <row r="113" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A113" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="13" t="s">
+      <c r="B113" s="14"/>
+      <c r="C113" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="0"/>
-    </row>
-    <row r="113" spans="1:7" ht="44.75" customHeight="1">
-      <c r="A113" s="27"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="D113" s="56"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="57"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="14"/>
       <c r="G113" s="0"/>
     </row>
-    <row r="114" spans="1:7" ht="27.00" customHeight="1">
-      <c r="A114" s="28"/>
-      <c r="B114" s="20" t="s">
-        <v>198</v>
+    <row r="114" spans="1:7" ht="63.25" customHeight="1">
+      <c r="A114" s="27"/>
+      <c r="B114" s="25" t="s">
+        <v>202</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
       <c r="F114" s="24"/>
       <c r="G114" s="0"/>
     </row>
-    <row r="115" spans="1:7" ht="94.25" customHeight="1">
+    <row r="115" spans="1:7" ht="63.00" customHeight="1">
       <c r="A115" s="28"/>
       <c r="B115" s="25" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D115" s="23"/>
       <c r="E115" s="23"/>
       <c r="F115" s="24"/>
       <c r="G115" s="0"/>
     </row>
-    <row r="116" spans="1:7" ht="49.50" customHeight="1">
+    <row r="116" spans="1:7" ht="63.75" customHeight="1">
       <c r="A116" s="28"/>
-      <c r="B116" s="45" t="s">
-        <v>202</v>
+      <c r="B116" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
       <c r="F116" s="24"/>
       <c r="G116" s="0"/>
     </row>
-    <row r="117" spans="1:7" ht="94.25" customHeight="1">
-      <c r="A117" s="28"/>
-      <c r="B117" s="25" t="s">
-        <v>204</v>
+    <row r="117" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A117" s="29"/>
+      <c r="B117" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
       <c r="F117" s="24"/>
       <c r="G117" s="0"/>
     </row>
-    <row r="118" spans="1:7" ht="63.50" customHeight="1">
-      <c r="A118" s="28"/>
+    <row r="118" spans="1:7" ht="60.50" customHeight="1">
+      <c r="A118" s="33" t="s">
+        <v>210</v>
+      </c>
       <c r="B118" s="25" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
       <c r="F118" s="24"/>
       <c r="G118" s="0"/>
     </row>
-    <row r="119" spans="1:7" ht="63.25" customHeight="1">
-      <c r="A119" s="28"/>
-      <c r="B119" s="25" t="s">
-        <v>208</v>
+    <row r="119" spans="1:7" ht="24.00" customHeight="1">
+      <c r="A119" s="34"/>
+      <c r="B119" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D119" s="23"/>
       <c r="E119" s="23"/>
       <c r="F119" s="24"/>
       <c r="G119" s="0"/>
     </row>
-    <row r="120" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A120" s="28"/>
-      <c r="B120" s="25" t="s">
-        <v>210</v>
+    <row r="120" spans="1:7" ht="24.00" customHeight="1">
+      <c r="A120" s="34"/>
+      <c r="B120" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
       <c r="F120" s="24"/>
       <c r="G120" s="0"/>
     </row>
-    <row r="121" spans="1:7" ht="57.50" customHeight="1">
-      <c r="A121" s="29"/>
-      <c r="B121" s="20" t="s">
-        <v>212</v>
+    <row r="121" spans="1:7" ht="102.75" customHeight="1">
+      <c r="A121" s="34"/>
+      <c r="B121" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D121" s="23"/>
       <c r="E121" s="23"/>
       <c r="F121" s="24"/>
       <c r="G121" s="0"/>
     </row>
-    <row r="122" spans="1:7" ht="60.50" customHeight="1">
-      <c r="A122" s="34" t="s">
-        <v>214</v>
-      </c>
+    <row r="122" spans="1:7" ht="105.00" customHeight="1">
+      <c r="A122" s="34"/>
       <c r="B122" s="25" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
       <c r="F122" s="24"/>
       <c r="G122" s="0"/>
     </row>
-    <row r="123" spans="1:7" ht="24.25" customHeight="1">
-      <c r="A123" s="35"/>
+    <row r="123" spans="1:7" ht="62.25" customHeight="1">
+      <c r="A123" s="34"/>
       <c r="B123" s="20" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
       <c r="F123" s="24"/>
       <c r="G123" s="0"/>
     </row>
-    <row r="124" spans="1:7" ht="24.25" customHeight="1">
-      <c r="A124" s="35"/>
+    <row r="124" spans="1:7" ht="24.00" customHeight="1">
+      <c r="A124" s="34"/>
       <c r="B124" s="20" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
       <c r="F124" s="24"/>
       <c r="G124" s="0"/>
     </row>
-    <row r="125" spans="1:7" ht="78.50" customHeight="1">
-      <c r="A125" s="36"/>
-      <c r="B125" s="25" t="s">
-        <v>221</v>
+    <row r="125" spans="1:7" ht="105.75" customHeight="1">
+      <c r="A125" s="34"/>
+      <c r="B125" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D125" s="23"/>
       <c r="E125" s="23"/>
       <c r="F125" s="24"/>
       <c r="G125" s="0"/>
     </row>
-    <row r="126" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A126" s="13" t="s">
+    <row r="126" spans="1:7" ht="62.25" customHeight="1">
+      <c r="A126" s="35"/>
+      <c r="B126" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="0"/>
+    </row>
+    <row r="127" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A127" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="13" t="s">
+      <c r="B127" s="14"/>
+      <c r="C127" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="0"/>
-    </row>
-    <row r="127" spans="1:7" ht="40.50" customHeight="1">
-      <c r="A127" s="27"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="D127" s="48"/>
-      <c r="E127" s="48"/>
-      <c r="F127" s="49"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="14"/>
       <c r="G127" s="0"/>
     </row>
-    <row r="128" spans="1:7" ht="108.50" customHeight="1">
-      <c r="A128" s="28"/>
-      <c r="B128" s="25" t="s">
-        <v>224</v>
+    <row r="128" spans="1:7" ht="84.00" customHeight="1">
+      <c r="A128" s="27"/>
+      <c r="B128" s="39" t="s">
+        <v>229</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
       <c r="F128" s="24"/>
       <c r="G128" s="0"/>
     </row>
-    <row r="129" spans="1:7" ht="63.25" customHeight="1">
+    <row r="129" spans="1:7" ht="82.50" customHeight="1">
       <c r="A129" s="28"/>
-      <c r="B129" s="25" t="s">
-        <v>226</v>
-      </c>
+      <c r="B129" s="40"/>
       <c r="C129" s="22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D129" s="23"/>
       <c r="E129" s="23"/>
       <c r="F129" s="24"/>
       <c r="G129" s="0"/>
     </row>
-    <row r="130" spans="1:7" ht="27.00" customHeight="1">
+    <row r="130" spans="1:7" ht="65.75" customHeight="1">
       <c r="A130" s="28"/>
-      <c r="B130" s="20" t="s">
-        <v>228</v>
+      <c r="B130" s="25" t="s">
+        <v>232</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
       <c r="F130" s="24"/>
       <c r="G130" s="0"/>
     </row>
-    <row r="131" spans="1:7" ht="84.00" customHeight="1">
+    <row r="131" spans="1:7" ht="42.00" customHeight="1">
       <c r="A131" s="28"/>
-      <c r="B131" s="25" t="s">
-        <v>230</v>
+      <c r="B131" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
@@ -16009,73 +16415,77 @@
     <row r="132" spans="1:7" ht="62.25" customHeight="1">
       <c r="A132" s="28"/>
       <c r="B132" s="20" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
       <c r="F132" s="24"/>
       <c r="G132" s="0"/>
     </row>
-    <row r="133" spans="1:7" ht="71.75" customHeight="1">
+    <row r="133" spans="1:7" ht="21.75" customHeight="1">
       <c r="A133" s="28"/>
-      <c r="B133" s="58" t="s">
-        <v>234</v>
+      <c r="B133" s="20" t="s">
+        <v>238</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D133" s="23"/>
       <c r="E133" s="23"/>
       <c r="F133" s="24"/>
       <c r="G133" s="0"/>
     </row>
-    <row r="134" spans="1:7" ht="62.25" customHeight="1">
-      <c r="A134" s="28"/>
-      <c r="B134" s="59"/>
+    <row r="134" spans="1:7" ht="42.00" customHeight="1">
+      <c r="A134" s="29"/>
+      <c r="B134" s="20" t="s">
+        <v>240</v>
+      </c>
       <c r="C134" s="22" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
       <c r="F134" s="24"/>
       <c r="G134" s="0"/>
     </row>
-    <row r="135" spans="1:7" ht="68.75" customHeight="1">
-      <c r="A135" s="28"/>
-      <c r="B135" s="25" t="s">
-        <v>237</v>
+    <row r="135" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A135" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D135" s="23"/>
       <c r="E135" s="23"/>
       <c r="F135" s="24"/>
       <c r="G135" s="0"/>
     </row>
-    <row r="136" spans="1:7" ht="42.00" customHeight="1">
-      <c r="A136" s="28"/>
-      <c r="B136" s="20" t="s">
-        <v>239</v>
+    <row r="136" spans="1:7" ht="104.25" customHeight="1">
+      <c r="A136" s="42"/>
+      <c r="B136" s="25" t="s">
+        <v>245</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
       <c r="F136" s="24"/>
       <c r="G136" s="0"/>
     </row>
-    <row r="137" spans="1:7" ht="62.25" customHeight="1">
-      <c r="A137" s="28"/>
+    <row r="137" spans="1:7" ht="42.00" customHeight="1">
+      <c r="A137" s="42"/>
       <c r="B137" s="20" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D137" s="23"/>
       <c r="E137" s="23"/>
@@ -16083,12 +16493,12 @@
       <c r="G137" s="0"/>
     </row>
     <row r="138" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A138" s="28"/>
+      <c r="A138" s="42"/>
       <c r="B138" s="20" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
@@ -16096,103 +16506,103 @@
       <c r="G138" s="0"/>
     </row>
     <row r="139" spans="1:7" ht="42.00" customHeight="1">
-      <c r="A139" s="29"/>
+      <c r="A139" s="42"/>
       <c r="B139" s="20" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D139" s="23"/>
       <c r="E139" s="23"/>
       <c r="F139" s="24"/>
       <c r="G139" s="0"/>
     </row>
-    <row r="140" spans="1:7" ht="22.50" customHeight="1">
-      <c r="A140" s="60" t="s">
-        <v>247</v>
-      </c>
+    <row r="140" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A140" s="42"/>
       <c r="B140" s="20" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
       <c r="F140" s="24"/>
       <c r="G140" s="0"/>
     </row>
-    <row r="141" spans="1:7" ht="62.25" customHeight="1">
-      <c r="A141" s="61"/>
+    <row r="141" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A141" s="42"/>
       <c r="B141" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
       <c r="F141" s="24"/>
       <c r="G141" s="0"/>
     </row>
-    <row r="142" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A142" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="14"/>
+    <row r="142" spans="1:7" ht="84.00" customHeight="1">
+      <c r="A142" s="42"/>
+      <c r="B142" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="24"/>
       <c r="G142" s="0"/>
     </row>
     <row r="143" spans="1:7" ht="42.00" customHeight="1">
-      <c r="A143" s="27"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="D143" s="48"/>
-      <c r="E143" s="48"/>
-      <c r="F143" s="49"/>
+      <c r="A143" s="42"/>
+      <c r="B143" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="24"/>
       <c r="G143" s="0"/>
     </row>
-    <row r="144" spans="1:7" ht="42.00" customHeight="1">
-      <c r="A144" s="28"/>
-      <c r="B144" s="30" t="s">
-        <v>253</v>
+    <row r="144" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A144" s="42"/>
+      <c r="B144" s="20" t="s">
+        <v>261</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
       <c r="F144" s="24"/>
       <c r="G144" s="0"/>
     </row>
-    <row r="145" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A145" s="28"/>
-      <c r="B145" s="37" t="s">
-        <v>255</v>
+    <row r="145" spans="1:7" ht="62.25" customHeight="1">
+      <c r="A145" s="42"/>
+      <c r="B145" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D145" s="23"/>
       <c r="E145" s="23"/>
       <c r="F145" s="24"/>
       <c r="G145" s="0"/>
     </row>
-    <row r="146" spans="1:7" ht="42.00" customHeight="1">
-      <c r="A146" s="28"/>
-      <c r="B146" s="37" t="s">
-        <v>257</v>
+    <row r="146" spans="1:7" ht="82.50" customHeight="1">
+      <c r="A146" s="43"/>
+      <c r="B146" s="20" t="s">
+        <v>265</v>
       </c>
       <c r="C146" s="22" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
@@ -16200,220 +16610,220 @@
       <c r="G146" s="0"/>
     </row>
     <row r="147" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A147" s="28"/>
-      <c r="B147" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="C147" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="24"/>
+      <c r="A147" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="14"/>
+      <c r="C147" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="14"/>
       <c r="G147" s="0"/>
     </row>
-    <row r="148" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A148" s="28"/>
-      <c r="B148" s="30" t="s">
-        <v>261</v>
+    <row r="148" spans="1:7" ht="69.00" customHeight="1">
+      <c r="A148" s="27"/>
+      <c r="B148" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
       <c r="F148" s="24"/>
       <c r="G148" s="0"/>
     </row>
-    <row r="149" spans="1:7" ht="62.25" customHeight="1">
+    <row r="149" spans="1:7" ht="82.50" customHeight="1">
       <c r="A149" s="28"/>
-      <c r="B149" s="37" t="s">
-        <v>263</v>
+      <c r="B149" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D149" s="23"/>
       <c r="E149" s="23"/>
       <c r="F149" s="24"/>
       <c r="G149" s="0"/>
     </row>
-    <row r="150" spans="1:7" ht="32.50" customHeight="1">
+    <row r="150" spans="1:7" ht="21.75" customHeight="1">
       <c r="A150" s="28"/>
-      <c r="B150" s="30" t="s">
-        <v>265</v>
+      <c r="B150" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
       <c r="F150" s="24"/>
       <c r="G150" s="0"/>
     </row>
-    <row r="151" spans="1:7" ht="21.75" customHeight="1">
+    <row r="151" spans="1:7" ht="23.75" customHeight="1">
       <c r="A151" s="28"/>
-      <c r="B151" s="37" t="s">
-        <v>267</v>
+      <c r="B151" s="20" t="s">
+        <v>273</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D151" s="23"/>
       <c r="E151" s="23"/>
       <c r="F151" s="24"/>
       <c r="G151" s="0"/>
     </row>
-    <row r="152" spans="1:7" ht="62.25" customHeight="1">
+    <row r="152" spans="1:7" ht="23.75" customHeight="1">
       <c r="A152" s="28"/>
-      <c r="B152" s="30" t="s">
-        <v>269</v>
+      <c r="B152" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
       <c r="F152" s="24"/>
       <c r="G152" s="0"/>
     </row>
-    <row r="153" spans="1:7" ht="82.50" customHeight="1">
+    <row r="153" spans="1:7" ht="25.00" customHeight="1">
       <c r="A153" s="28"/>
-      <c r="B153" s="45" t="s">
-        <v>271</v>
+      <c r="B153" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D153" s="23"/>
       <c r="E153" s="23"/>
       <c r="F153" s="24"/>
       <c r="G153" s="0"/>
     </row>
-    <row r="154" spans="1:7" ht="72.00" customHeight="1">
+    <row r="154" spans="1:7" ht="24.75" customHeight="1">
       <c r="A154" s="28"/>
-      <c r="B154" s="32" t="s">
-        <v>273</v>
+      <c r="B154" s="20" t="s">
+        <v>279</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
       <c r="F154" s="24"/>
       <c r="G154" s="0"/>
     </row>
-    <row r="155" spans="1:7" ht="82.50" customHeight="1">
+    <row r="155" spans="1:7" ht="21.75" customHeight="1">
       <c r="A155" s="28"/>
-      <c r="B155" s="37" t="s">
-        <v>275</v>
+      <c r="B155" s="20" t="s">
+        <v>281</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D155" s="23"/>
       <c r="E155" s="23"/>
       <c r="F155" s="24"/>
       <c r="G155" s="0"/>
     </row>
-    <row r="156" spans="1:7" ht="22.25" customHeight="1">
+    <row r="156" spans="1:7" ht="42.00" customHeight="1">
       <c r="A156" s="28"/>
-      <c r="B156" s="37" t="s">
-        <v>277</v>
+      <c r="B156" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
       <c r="F156" s="24"/>
       <c r="G156" s="0"/>
     </row>
-    <row r="157" spans="1:7" ht="49.50" customHeight="1">
+    <row r="157" spans="1:7" ht="35.25" customHeight="1">
       <c r="A157" s="28"/>
-      <c r="B157" s="32" t="s">
-        <v>279</v>
+      <c r="B157" s="20" t="s">
+        <v>285</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D157" s="23"/>
       <c r="E157" s="23"/>
       <c r="F157" s="24"/>
       <c r="G157" s="0"/>
     </row>
-    <row r="158" spans="1:7" ht="26.75" customHeight="1">
+    <row r="158" spans="1:7" ht="21.75" customHeight="1">
       <c r="A158" s="28"/>
-      <c r="B158" s="45" t="s">
-        <v>281</v>
+      <c r="B158" s="20" t="s">
+        <v>287</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
       <c r="F158" s="24"/>
       <c r="G158" s="0"/>
     </row>
-    <row r="159" spans="1:7" ht="40.50" customHeight="1">
+    <row r="159" spans="1:7" ht="21.75" customHeight="1">
       <c r="A159" s="28"/>
-      <c r="B159" s="38" t="s">
-        <v>283</v>
+      <c r="B159" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
       <c r="F159" s="24"/>
       <c r="G159" s="0"/>
     </row>
-    <row r="160" spans="1:7" ht="27.75" customHeight="1">
+    <row r="160" spans="1:7" ht="42.00" customHeight="1">
       <c r="A160" s="28"/>
-      <c r="B160" s="30" t="s">
-        <v>285</v>
+      <c r="B160" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
       <c r="F160" s="24"/>
       <c r="G160" s="0"/>
     </row>
-    <row r="161" spans="1:7" ht="24.00" customHeight="1">
+    <row r="161" spans="1:7" ht="42.00" customHeight="1">
       <c r="A161" s="28"/>
       <c r="B161" s="20" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D161" s="23"/>
       <c r="E161" s="23"/>
       <c r="F161" s="24"/>
       <c r="G161" s="0"/>
     </row>
-    <row r="162" spans="1:7" ht="42.00" customHeight="1">
+    <row r="162" spans="1:7" ht="21.75" customHeight="1">
       <c r="A162" s="28"/>
-      <c r="B162" s="30" t="s">
-        <v>289</v>
+      <c r="B162" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
       <c r="F162" s="24"/>
       <c r="G162" s="0"/>
     </row>
-    <row r="163" spans="1:7" ht="42.00" customHeight="1">
-      <c r="A163" s="29"/>
-      <c r="B163" s="30" t="s">
-        <v>291</v>
+    <row r="163" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A163" s="28"/>
+      <c r="B163" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D163" s="23"/>
       <c r="E163" s="23"/>
@@ -16421,124 +16831,33 @@
       <c r="G163" s="0"/>
     </row>
     <row r="164" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A164" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B164" s="14"/>
-      <c r="C164" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="14"/>
+      <c r="A164" s="28"/>
+      <c r="B164" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="24"/>
       <c r="G164" s="0"/>
     </row>
-    <row r="165" spans="1:7" ht="24.25" customHeight="1">
-      <c r="A165" s="27"/>
+    <row r="165" spans="1:7" ht="62.25" customHeight="1">
+      <c r="A165" s="29"/>
       <c r="B165" s="20" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D165" s="23"/>
       <c r="E165" s="23"/>
       <c r="F165" s="24"/>
       <c r="G165" s="0"/>
     </row>
-    <row r="166" spans="1:7" ht="24.25" customHeight="1">
-      <c r="A166" s="28"/>
-      <c r="B166" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C166" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="D166" s="23"/>
-      <c r="E166" s="23"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="0"/>
-    </row>
-    <row r="167" spans="1:7" ht="42.00" customHeight="1">
-      <c r="A167" s="28"/>
-      <c r="B167" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D167" s="23"/>
-      <c r="E167" s="23"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="0"/>
-    </row>
-    <row r="168" spans="1:7" ht="42.00" customHeight="1">
-      <c r="A168" s="28"/>
-      <c r="B168" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C168" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="D168" s="23"/>
-      <c r="E168" s="23"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="0"/>
-    </row>
-    <row r="169" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A169" s="28"/>
-      <c r="B169" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C169" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="D169" s="23"/>
-      <c r="E169" s="23"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="0"/>
-    </row>
-    <row r="170" spans="1:7" ht="24.25" customHeight="1">
-      <c r="A170" s="28"/>
-      <c r="B170" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C170" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="0"/>
-    </row>
-    <row r="171" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A171" s="28"/>
-      <c r="B171" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C171" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="D171" s="23"/>
-      <c r="E171" s="23"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="0"/>
-    </row>
-    <row r="172" spans="1:7" ht="63.00" customHeight="1">
-      <c r="A172" s="29"/>
-      <c r="B172" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="C172" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D172" s="23"/>
-      <c r="E172" s="23"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="0"/>
-    </row>
   </sheetData>
-  <mergeCells count="201">
+  <mergeCells count="192">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:D3"/>
@@ -16563,7 +16882,7 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A22:A38"/>
+    <mergeCell ref="A22:A37"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
@@ -16580,26 +16899,26 @@
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="A40:A44"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="C44:F44"/>
-    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A45:A50"/>
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="C50:F50"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:F51"/>
-    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A52:A66"/>
     <mergeCell ref="C52:F52"/>
-    <mergeCell ref="A53:A66"/>
     <mergeCell ref="C53:F53"/>
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="C55:F55"/>
@@ -16616,22 +16935,22 @@
     <mergeCell ref="C66:F66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="C67:F67"/>
-    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A68:A72"/>
     <mergeCell ref="C68:F68"/>
     <mergeCell ref="C69:F69"/>
     <mergeCell ref="C70:F70"/>
     <mergeCell ref="C71:F71"/>
     <mergeCell ref="C72:F72"/>
+    <mergeCell ref="A73:A77"/>
     <mergeCell ref="C73:F73"/>
-    <mergeCell ref="A74:A78"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="C75:F75"/>
     <mergeCell ref="C76:F76"/>
     <mergeCell ref="C77:F77"/>
+    <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:F78"/>
-    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A79:A89"/>
     <mergeCell ref="C79:F79"/>
-    <mergeCell ref="A80:A89"/>
     <mergeCell ref="C80:F80"/>
     <mergeCell ref="C81:F81"/>
     <mergeCell ref="C82:F82"/>
@@ -16658,7 +16977,7 @@
     <mergeCell ref="C101:F101"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="C102:F102"/>
-    <mergeCell ref="A103:A111"/>
+    <mergeCell ref="A103:A112"/>
     <mergeCell ref="C103:F103"/>
     <mergeCell ref="C104:F104"/>
     <mergeCell ref="C105:F105"/>
@@ -16668,51 +16987,51 @@
     <mergeCell ref="C109:F109"/>
     <mergeCell ref="C110:F110"/>
     <mergeCell ref="C111:F111"/>
-    <mergeCell ref="A112:B112"/>
     <mergeCell ref="C112:F112"/>
-    <mergeCell ref="A113:A121"/>
+    <mergeCell ref="A113:B113"/>
     <mergeCell ref="C113:F113"/>
+    <mergeCell ref="A114:A117"/>
     <mergeCell ref="C114:F114"/>
     <mergeCell ref="C115:F115"/>
     <mergeCell ref="C116:F116"/>
     <mergeCell ref="C117:F117"/>
+    <mergeCell ref="A118:A126"/>
     <mergeCell ref="C118:F118"/>
     <mergeCell ref="C119:F119"/>
     <mergeCell ref="C120:F120"/>
     <mergeCell ref="C121:F121"/>
-    <mergeCell ref="A122:A125"/>
     <mergeCell ref="C122:F122"/>
     <mergeCell ref="C123:F123"/>
     <mergeCell ref="C124:F124"/>
     <mergeCell ref="C125:F125"/>
-    <mergeCell ref="A126:B126"/>
     <mergeCell ref="C126:F126"/>
-    <mergeCell ref="A127:A139"/>
+    <mergeCell ref="A127:B127"/>
     <mergeCell ref="C127:F127"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="B128:B129"/>
     <mergeCell ref="C128:F128"/>
     <mergeCell ref="C129:F129"/>
     <mergeCell ref="C130:F130"/>
     <mergeCell ref="C131:F131"/>
     <mergeCell ref="C132:F132"/>
-    <mergeCell ref="B133:B134"/>
     <mergeCell ref="C133:F133"/>
     <mergeCell ref="C134:F134"/>
+    <mergeCell ref="A135:A146"/>
     <mergeCell ref="C135:F135"/>
     <mergeCell ref="C136:F136"/>
     <mergeCell ref="C137:F137"/>
     <mergeCell ref="C138:F138"/>
     <mergeCell ref="C139:F139"/>
-    <mergeCell ref="A140:A141"/>
     <mergeCell ref="C140:F140"/>
     <mergeCell ref="C141:F141"/>
-    <mergeCell ref="A142:B142"/>
     <mergeCell ref="C142:F142"/>
-    <mergeCell ref="A143:A163"/>
     <mergeCell ref="C143:F143"/>
     <mergeCell ref="C144:F144"/>
     <mergeCell ref="C145:F145"/>
     <mergeCell ref="C146:F146"/>
+    <mergeCell ref="A147:B147"/>
     <mergeCell ref="C147:F147"/>
+    <mergeCell ref="A148:A165"/>
     <mergeCell ref="C148:F148"/>
     <mergeCell ref="C149:F149"/>
     <mergeCell ref="C150:F150"/>
@@ -16729,20 +17048,11 @@
     <mergeCell ref="C161:F161"/>
     <mergeCell ref="C162:F162"/>
     <mergeCell ref="C163:F163"/>
-    <mergeCell ref="A164:B164"/>
     <mergeCell ref="C164:F164"/>
-    <mergeCell ref="A165:A172"/>
     <mergeCell ref="C165:F165"/>
-    <mergeCell ref="C166:F166"/>
-    <mergeCell ref="C167:F167"/>
-    <mergeCell ref="C168:F168"/>
-    <mergeCell ref="C169:F169"/>
-    <mergeCell ref="C170:F170"/>
-    <mergeCell ref="C171:F171"/>
-    <mergeCell ref="C172:F172"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C65" r:id="rId1" display="http://overseas.mofa.go.kr/ca-ko/index.do)"/>
+    <hyperlink ref="C64" r:id="rId1" display="http://overseas.mofa.go.kr/ca-ko/index.do)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -16758,14 +17068,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="1" width="9.555556"/>
-    <col min="2" max="2" customWidth="1" width="16"/>
+    <col min="2" max="2" customWidth="1" width="15.777778"/>
     <col min="3" max="3" customWidth="1" width="87.777778"/>
     <col min="4" max="4" customWidth="1" width="3.777778"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36.00" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -16781,53 +17091,53 @@
       </c>
       <c r="D2" s="0"/>
     </row>
-    <row r="3" spans="1:4" ht="212.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:4" ht="112.75" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="0"/>
+    </row>
+    <row r="4" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0"/>
+    </row>
+    <row r="5" spans="1:4" ht="187.50" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="0"/>
+    </row>
+    <row r="6" spans="1:4" ht="178.25" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="0"/>
+    </row>
+    <row r="7" spans="1:4" ht="178.25" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>310</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" s="0"/>
-    </row>
-    <row r="4" spans="1:4" ht="178.75" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="D4" s="0"/>
-    </row>
-    <row r="5" spans="1:4" ht="42.00" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>315</v>
-      </c>
-      <c r="D5" s="0"/>
-    </row>
-    <row r="6" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0"/>
-    </row>
-    <row r="7" spans="1:4" ht="159.50" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
-        <v>316</v>
       </c>
       <c r="D7" s="0"/>
     </row>
@@ -16835,8 +17145,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16844,29 +17154,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="9.333333"/>
-    <col min="2" max="2" customWidth="1" width="16.444444"/>
+    <col min="1" max="1" customWidth="1" width="8.888889"/>
+    <col min="2" max="2" customWidth="1" width="16.666667"/>
     <col min="3" max="3" customWidth="1" width="86.444444"/>
-    <col min="4" max="4" customWidth="1" width="5.111111"/>
+    <col min="4" max="4" customWidth="1" width="4.888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36.00" customHeight="1">
-      <c r="A1" s="62" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="A1" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="21.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="12" t="s">
@@ -16874,314 +17184,337 @@
       </c>
       <c r="D2" s="0"/>
     </row>
-    <row r="3" spans="1:4" ht="100.50" customHeight="1">
-      <c r="A3" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>320</v>
+    <row r="3" spans="1:4" ht="102.75" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>314</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D3" s="0"/>
     </row>
-    <row r="4" spans="1:4" ht="156.00" customHeight="1">
+    <row r="4" spans="1:4" ht="42.75" customHeight="1">
       <c r="A4" s="35"/>
       <c r="B4" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="0"/>
+    </row>
+    <row r="5" spans="1:4" ht="1.00" customHeight="1">
+      <c r="A5" s="0"/>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+    </row>
+    <row r="6" spans="1:4" ht="103.75" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="0"/>
+    </row>
+    <row r="7" spans="1:4" ht="62.25" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="0"/>
+    </row>
+    <row r="8" spans="1:4" ht="90.50" customHeight="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D8" s="0"/>
+    </row>
+    <row r="9" spans="1:4" ht="115.00" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="D4" s="0"/>
-    </row>
-    <row r="5" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="D5" s="0"/>
-    </row>
-    <row r="6" spans="1:4" ht="85.25" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" s="0"/>
-    </row>
-    <row r="7" spans="1:4" ht="116.00" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="D7" s="0"/>
-    </row>
-    <row r="8" spans="1:4" ht="1.00" customHeight="1">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-    </row>
-    <row r="9" spans="1:4" ht="82.50" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>331</v>
-      </c>
       <c r="D9" s="0"/>
     </row>
-    <row r="10" spans="1:4" ht="153.50" customHeight="1">
+    <row r="10" spans="1:4" ht="82.50" customHeight="1">
       <c r="A10" s="28"/>
       <c r="B10" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>333</v>
+        <v>325</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>326</v>
       </c>
       <c r="D10" s="0"/>
     </row>
-    <row r="11" spans="1:4" ht="83.75" customHeight="1">
+    <row r="11" spans="1:4" ht="139.25" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>335</v>
+        <v>327</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>328</v>
       </c>
       <c r="D11" s="0"/>
     </row>
-    <row r="12" spans="1:4" ht="51.25" customHeight="1">
+    <row r="12" spans="1:4" ht="83.25" customHeight="1">
       <c r="A12" s="28"/>
       <c r="B12" s="25" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D12" s="0"/>
     </row>
-    <row r="13" spans="1:4" ht="104.00" customHeight="1">
+    <row r="13" spans="1:4" ht="51.25" customHeight="1">
       <c r="A13" s="28"/>
       <c r="B13" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="0"/>
+    </row>
+    <row r="14" spans="1:4" ht="63.75" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="0"/>
+    </row>
+    <row r="15" spans="1:4" ht="1.00" customHeight="1">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+    </row>
+    <row r="16" spans="1:4" ht="60.75" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D16" s="0"/>
+    </row>
+    <row r="17" spans="1:4" ht="56.25" customHeight="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="0"/>
+    </row>
+    <row r="18" spans="1:4" ht="145.50" customHeight="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="D13" s="0"/>
-    </row>
-    <row r="14" spans="1:4" ht="56.25" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30" t="s">
+      <c r="D18" s="0"/>
+    </row>
+    <row r="19" spans="1:4" ht="35.75" customHeight="1">
+      <c r="A19" s="28"/>
+      <c r="B19" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="D14" s="0"/>
-    </row>
-    <row r="15" spans="1:4" ht="154.50" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="D15" s="0"/>
-    </row>
-    <row r="16" spans="1:4" ht="36.00" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="D16" s="0"/>
-    </row>
-    <row r="17" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>347</v>
-      </c>
-      <c r="D17" s="0"/>
-    </row>
-    <row r="18" spans="1:4" ht="1.00" customHeight="1">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-    </row>
-    <row r="19" spans="1:4" ht="57.50" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21" t="s">
-        <v>348</v>
-      </c>
       <c r="D19" s="0"/>
     </row>
-    <row r="20" spans="1:4" ht="118.00" customHeight="1">
+    <row r="20" spans="1:4" ht="110.00" customHeight="1">
       <c r="A20" s="28"/>
       <c r="B20" s="25" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D20" s="0"/>
     </row>
-    <row r="21" spans="1:4" ht="46.25" customHeight="1">
+    <row r="21" spans="1:4" ht="117.75" customHeight="1">
       <c r="A21" s="28"/>
       <c r="B21" s="25" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D21" s="0"/>
     </row>
-    <row r="22" spans="1:4" ht="102.25" customHeight="1">
+    <row r="22" spans="1:4" ht="46.25" customHeight="1">
       <c r="A22" s="28"/>
       <c r="B22" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="0"/>
+    </row>
+    <row r="23" spans="1:4" ht="102.00" customHeight="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="0"/>
+    </row>
+    <row r="24" spans="1:4" ht="32.25" customHeight="1">
+      <c r="A24" s="28"/>
+      <c r="B24" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="0"/>
+    </row>
+    <row r="25" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="D25" s="0"/>
+    </row>
+    <row r="26" spans="1:4" ht="1.00" customHeight="1">
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+    </row>
+    <row r="27" spans="1:4" ht="79.00" customHeight="1">
+      <c r="A27" s="27"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="D22" s="0"/>
-    </row>
-    <row r="23" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="20" t="s">
+      <c r="D27" s="0"/>
+    </row>
+    <row r="28" spans="1:4" ht="76.00" customHeight="1">
+      <c r="A28" s="28"/>
+      <c r="B28" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="D23" s="0"/>
-    </row>
-    <row r="24" spans="1:4" ht="128.25" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="65" t="s">
+      <c r="D28" s="0"/>
+    </row>
+    <row r="29" spans="1:4" ht="63.00" customHeight="1">
+      <c r="A29" s="28"/>
+      <c r="B29" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="D24" s="0"/>
-    </row>
-    <row r="25" spans="1:4" ht="76.25" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="D25" s="0"/>
-    </row>
-    <row r="26" spans="1:4" ht="63.25" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="D26" s="0"/>
-    </row>
-    <row r="27" spans="1:4" ht="133.00" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="D27" s="0"/>
-    </row>
-    <row r="28" spans="1:4" ht="180.00" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="D28" s="0"/>
-    </row>
-    <row r="29" spans="1:4" ht="29.75" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>367</v>
-      </c>
       <c r="D29" s="0"/>
     </row>
-    <row r="30" spans="1:4" ht="128.25" customHeight="1">
+    <row r="30" spans="1:4" ht="300.75" customHeight="1">
       <c r="A30" s="28"/>
       <c r="B30" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D30" s="0"/>
+    </row>
+    <row r="31" spans="1:4" ht="29.75" customHeight="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="0"/>
+    </row>
+    <row r="32" spans="1:4" ht="119.50" customHeight="1">
+      <c r="A32" s="28"/>
+      <c r="B32" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D32" s="0"/>
+    </row>
+    <row r="33" spans="1:4" ht="40.50" customHeight="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D33" s="0"/>
+    </row>
+    <row r="34" spans="1:4" ht="62.25" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="D34" s="0"/>
+    </row>
+    <row r="35" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="D30" s="0"/>
-    </row>
-    <row r="31" spans="1:4" ht="38.00" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="30" t="s">
+      <c r="D35" s="0"/>
+    </row>
+    <row r="36" spans="1:4" ht="76.50" customHeight="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C36" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="D31" s="0"/>
-    </row>
-    <row r="32" spans="1:4" ht="73.50" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="D32" s="0"/>
-    </row>
-    <row r="33" spans="1:4" ht="63.25" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D33" s="0"/>
+      <c r="D36" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A35:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17190,21 +17523,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="9.333333"/>
-    <col min="2" max="2" customWidth="1" width="14.444444"/>
-    <col min="3" max="3" customWidth="1" width="86.666667"/>
+    <col min="1" max="1" customWidth="1" width="8.888889"/>
+    <col min="2" max="2" customWidth="1" width="14.666667"/>
+    <col min="3" max="3" customWidth="1" width="86.444444"/>
     <col min="4" max="4" customWidth="1" width="6.888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.00" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -17218,7 +17551,7 @@
     </row>
     <row r="3" spans="1:4" ht="21.75" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="12" t="s">
@@ -17226,199 +17559,173 @@
       </c>
       <c r="D3" s="0"/>
     </row>
-    <row r="4" spans="1:4" ht="144.75" customHeight="1">
+    <row r="4" spans="1:4" ht="198.50" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="0"/>
+    </row>
+    <row r="5" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="0"/>
+    </row>
+    <row r="6" spans="1:4" ht="49.25" customHeight="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="D4" s="0"/>
-    </row>
-    <row r="5" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12" t="s">
+      <c r="D6" s="0"/>
+    </row>
+    <row r="7" spans="1:4" ht="62.25" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="D7" s="0"/>
+    </row>
+    <row r="8" spans="1:4" ht="62.25" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="0"/>
+    </row>
+    <row r="9" spans="1:4" ht="62.25" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9" s="0"/>
+    </row>
+    <row r="10" spans="1:4" ht="42.00" customHeight="1">
+      <c r="A10" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="0"/>
+    </row>
+    <row r="11" spans="1:4" ht="84.00" customHeight="1">
+      <c r="A11" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" s="0"/>
+    </row>
+    <row r="12" spans="1:4" ht="56.00" customHeight="1">
+      <c r="A12" s="43"/>
+      <c r="B12" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12" s="0"/>
+    </row>
+    <row r="13" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0"/>
-    </row>
-    <row r="6" spans="1:4" ht="64.50" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="46" t="s">
-        <v>379</v>
-      </c>
-      <c r="D6" s="0"/>
-    </row>
-    <row r="7" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="D7" s="0"/>
-    </row>
-    <row r="8" spans="1:4" ht="49.50" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="D8" s="0"/>
-    </row>
-    <row r="9" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="D9" s="0"/>
-    </row>
-    <row r="10" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="0"/>
-    </row>
-    <row r="11" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="D11" s="0"/>
-    </row>
-    <row r="12" spans="1:4" ht="24.25" customHeight="1">
-      <c r="A12" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="D13" s="0"/>
+    </row>
+    <row r="14" spans="1:4" ht="82.50" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="D12" s="0"/>
-    </row>
-    <row r="13" spans="1:4" ht="84.00" customHeight="1">
-      <c r="A13" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D14" s="0"/>
+    </row>
+    <row r="15" spans="1:4" ht="82.50" customHeight="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="D13" s="0"/>
-    </row>
-    <row r="14" spans="1:4" ht="52.25" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D15" s="0"/>
+    </row>
+    <row r="16" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="D14" s="0"/>
-    </row>
-    <row r="15" spans="1:4" ht="82.50" customHeight="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="25" t="s">
+      <c r="C16" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D16" s="0"/>
+    </row>
+    <row r="17" spans="1:4" ht="133.25" customHeight="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="D15" s="0"/>
-    </row>
-    <row r="16" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D17" s="0"/>
+    </row>
+    <row r="18" spans="1:4" ht="84.00" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="D16" s="0"/>
-    </row>
-    <row r="17" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D17" s="0"/>
-    </row>
-    <row r="18" spans="1:4" ht="125.00" customHeight="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>403</v>
-      </c>
       <c r="D18" s="0"/>
-    </row>
-    <row r="19" spans="1:4" ht="32.50" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="D19" s="0"/>
-    </row>
-    <row r="20" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="0"/>
-    </row>
-    <row r="21" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="D21" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17427,21 +17734,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="9.333333"/>
-    <col min="2" max="2" customWidth="1" width="15.111111"/>
+    <col min="1" max="1" customWidth="1" width="8.888889"/>
+    <col min="2" max="2" customWidth="1" width="15.333333"/>
     <col min="3" max="3" customWidth="1" width="87.777778"/>
-    <col min="4" max="4" customWidth="1" width="5.111111"/>
+    <col min="4" max="4" customWidth="1" width="4.888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -17449,7 +17756,7 @@
     </row>
     <row r="2" spans="1:4" ht="21.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="12" t="s">
@@ -17457,241 +17764,262 @@
       </c>
       <c r="D2" s="0"/>
     </row>
-    <row r="3" spans="1:4" ht="100.00" customHeight="1">
+    <row r="3" spans="1:4" ht="99.50" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D3" s="0"/>
     </row>
     <row r="4" spans="1:4" ht="123.00" customHeight="1">
       <c r="A4" s="18"/>
       <c r="B4" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="0"/>
+    </row>
+    <row r="5" spans="1:4" ht="107.25" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="0"/>
+    </row>
+    <row r="6" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0"/>
+    </row>
+    <row r="7" spans="1:4" ht="114.25" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="0"/>
+    </row>
+    <row r="8" spans="1:4" ht="107.25" customHeight="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D8" s="0"/>
+    </row>
+    <row r="9" spans="1:4" ht="90.50" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="52" t="s">
         <v>411</v>
       </c>
-      <c r="D4" s="0"/>
-    </row>
-    <row r="5" spans="1:4" ht="209.00" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D9" s="0"/>
+    </row>
+    <row r="10" spans="1:4" ht="72.75" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="D5" s="0"/>
-    </row>
-    <row r="6" spans="1:4" ht="102.75" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="25" t="s">
+      <c r="C10" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D10" s="0"/>
+    </row>
+    <row r="11" spans="1:4" ht="52.25" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="53" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="0"/>
-    </row>
-    <row r="7" spans="1:4" ht="60.25" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="37" t="s">
+      <c r="C11" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D11" s="0"/>
+    </row>
+    <row r="12" spans="1:4" ht="62.25" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="0"/>
-    </row>
-    <row r="8" spans="1:4" ht="49.50" customHeight="1">
-      <c r="A8" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="C12" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="D12" s="0"/>
+    </row>
+    <row r="13" spans="1:4" ht="37.50" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="D8" s="0"/>
-    </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12" t="s">
+      <c r="C13" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="D13" s="0"/>
+    </row>
+    <row r="14" spans="1:4" ht="77.25" customHeight="1">
+      <c r="A14" s="35"/>
+      <c r="B14" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="0"/>
+    </row>
+    <row r="15" spans="1:4" ht="42.00" customHeight="1">
+      <c r="A15" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="0"/>
+    </row>
+    <row r="16" spans="1:4" ht="88.25" customHeight="1">
+      <c r="A16" s="34"/>
+      <c r="B16" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="D16" s="0"/>
+    </row>
+    <row r="17" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A17" s="35"/>
+      <c r="B17" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="D17" s="0"/>
+    </row>
+    <row r="18" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="0"/>
-    </row>
-    <row r="10" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="0"/>
-    </row>
-    <row r="11" spans="1:4" ht="37.50" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="D11" s="0"/>
-    </row>
-    <row r="12" spans="1:4" ht="80.00" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D12" s="0"/>
-    </row>
-    <row r="13" spans="1:4" ht="42.00" customHeight="1">
-      <c r="A13" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="D13" s="0"/>
-    </row>
-    <row r="14" spans="1:4" ht="88.50" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="D18" s="0"/>
+    </row>
+    <row r="19" spans="1:4" ht="47.00" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="D14" s="0"/>
-    </row>
-    <row r="15" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D19" s="0"/>
+    </row>
+    <row r="20" spans="1:4" ht="82.75" customHeight="1">
+      <c r="A20" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="D15" s="0"/>
-    </row>
-    <row r="16" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D20" s="0"/>
+    </row>
+    <row r="21" spans="1:4" ht="82.50" customHeight="1">
+      <c r="A21" s="42"/>
+      <c r="B21" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="D16" s="0"/>
-    </row>
-    <row r="17" spans="1:4" ht="83.00" customHeight="1">
-      <c r="A17" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" s="25" t="s">
+      <c r="C21" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D21" s="0"/>
+    </row>
+    <row r="22" spans="1:4" ht="32.50" customHeight="1">
+      <c r="A22" s="42"/>
+      <c r="B22" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="D17" s="0"/>
-    </row>
-    <row r="18" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D22" s="0"/>
+    </row>
+    <row r="23" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A23" s="42"/>
+      <c r="B23" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="D18" s="0"/>
-    </row>
-    <row r="19" spans="1:4" ht="32.50" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D23" s="0"/>
+    </row>
+    <row r="24" spans="1:4" ht="42.00" customHeight="1">
+      <c r="A24" s="42"/>
+      <c r="B24" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="0"/>
-    </row>
-    <row r="20" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="D24" s="0"/>
+    </row>
+    <row r="25" spans="1:4" ht="74.25" customHeight="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="D20" s="0"/>
-    </row>
-    <row r="21" spans="1:4" ht="42.00" customHeight="1">
-      <c r="A21" s="66"/>
-      <c r="B21" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="D25" s="0"/>
+    </row>
+    <row r="26" spans="1:4" ht="151.75" customHeight="1">
+      <c r="A26" s="56" t="s">
         <v>443</v>
       </c>
-      <c r="D21" s="0"/>
-    </row>
-    <row r="22" spans="1:4" ht="74.50" customHeight="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="D22" s="0"/>
-    </row>
-    <row r="23" spans="1:4" ht="74.25" customHeight="1">
-      <c r="A23" s="67" t="s">
-        <v>446</v>
-      </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-    </row>
-    <row r="24" spans="1:4" ht="74.25" customHeight="1">
-      <c r="A24" s="67" t="s">
-        <v>447</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
